--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_mai-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_mai-2021_tratado.xlsx
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>8386865542</v>
+        <v>1129794922</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4213112873</v>
+        <v>9719742099</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5202038036</v>
+        <v>9816392873</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3725773907</v>
+        <v>1360603303</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1976196836</v>
+        <v>4106967527</v>
       </c>
     </row>
     <row r="7">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>7954246938</v>
+        <v>4959564091</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2848153552</v>
+        <v>7236504352</v>
       </c>
     </row>
     <row r="9">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5269184636</v>
+        <v>2265076201</v>
       </c>
     </row>
     <row r="10">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>8159647137</v>
+        <v>8245645466</v>
       </c>
     </row>
     <row r="11">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>9745623986</v>
+        <v>5814540273</v>
       </c>
     </row>
     <row r="12">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>9092862596</v>
+        <v>2066181322</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3921896495</v>
+        <v>4049239373</v>
       </c>
     </row>
     <row r="14">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3445625869</v>
+        <v>8300459318</v>
       </c>
     </row>
     <row r="15">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4462677365</v>
+        <v>9170417122</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5230359117</v>
+        <v>5283798038</v>
       </c>
     </row>
     <row r="17">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>9295017706</v>
+        <v>7534809048</v>
       </c>
     </row>
     <row r="18">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>8893870816</v>
+        <v>930186955</v>
       </c>
     </row>
     <row r="19">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>8813402993</v>
+        <v>1516583003</v>
       </c>
     </row>
     <row r="20">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>6047444198</v>
+        <v>4232087677</v>
       </c>
     </row>
     <row r="21">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>8084180668</v>
+        <v>3173442599</v>
       </c>
     </row>
     <row r="22">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>6670267583</v>
+        <v>6452017356</v>
       </c>
     </row>
     <row r="23">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>390432501</v>
+        <v>1895825654</v>
       </c>
     </row>
     <row r="24">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>417370251</v>
+        <v>5607233583</v>
       </c>
     </row>
     <row r="25">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5071844148</v>
+        <v>4793767320</v>
       </c>
     </row>
     <row r="26">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>5314113163</v>
+        <v>2913015177</v>
       </c>
     </row>
     <row r="27">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5470647599</v>
+        <v>2196236187</v>
       </c>
     </row>
     <row r="28">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>6655576417</v>
+        <v>8074781421</v>
       </c>
     </row>
     <row r="29">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>6509987544</v>
+        <v>6185193587</v>
       </c>
     </row>
     <row r="30">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6215714850</v>
+        <v>2939663138</v>
       </c>
     </row>
     <row r="31">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>8478684768</v>
+        <v>7499459735</v>
       </c>
     </row>
     <row r="32">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7281780878</v>
+        <v>2153557790</v>
       </c>
     </row>
     <row r="33">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3032347251</v>
+        <v>5850151976</v>
       </c>
     </row>
     <row r="34">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6929193480</v>
+        <v>6578039588</v>
       </c>
     </row>
     <row r="35">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2586685450</v>
+        <v>8730646609</v>
       </c>
     </row>
     <row r="36">
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>8275042076</v>
+        <v>80112173</v>
       </c>
     </row>
     <row r="37">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>9884649960</v>
+        <v>5328346284</v>
       </c>
     </row>
     <row r="38">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>6743817195</v>
+        <v>1647134048</v>
       </c>
     </row>
     <row r="39">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2240002751</v>
+        <v>8214546029</v>
       </c>
     </row>
     <row r="40">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5306667980</v>
+        <v>4460102231</v>
       </c>
     </row>
     <row r="41">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6880910113</v>
+        <v>2416080268</v>
       </c>
     </row>
     <row r="42">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>104466538</v>
+        <v>3927380377</v>
       </c>
     </row>
     <row r="43">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>6022618433</v>
+        <v>9578441144</v>
       </c>
     </row>
     <row r="44">
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4308614545</v>
+        <v>6331482094</v>
       </c>
     </row>
     <row r="45">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3376874586</v>
+        <v>8248608136</v>
       </c>
     </row>
     <row r="46">
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1436141333</v>
+        <v>4636192597</v>
       </c>
     </row>
     <row r="47">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1368991439</v>
+        <v>9866653973</v>
       </c>
     </row>
     <row r="48">
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7794594084</v>
+        <v>5899478112</v>
       </c>
     </row>
     <row r="49">
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4734411494</v>
+        <v>2789751480</v>
       </c>
     </row>
     <row r="50">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7834926835</v>
+        <v>7531627942</v>
       </c>
     </row>
     <row r="51">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>7147389490</v>
+        <v>7474593292</v>
       </c>
     </row>
     <row r="52">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7294301865</v>
+        <v>3978984649</v>
       </c>
     </row>
     <row r="53">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>8938644822</v>
+        <v>5387382173</v>
       </c>
     </row>
     <row r="54">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3922224652</v>
+        <v>8671421518</v>
       </c>
     </row>
     <row r="55">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2065547250</v>
+        <v>3925906541</v>
       </c>
     </row>
     <row r="56">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>324333054</v>
+        <v>7415008823</v>
       </c>
     </row>
     <row r="57">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>8598404709</v>
+        <v>3417662308</v>
       </c>
     </row>
     <row r="58">
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>565975100</v>
+        <v>7414427354</v>
       </c>
     </row>
     <row r="59">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6679120504</v>
+        <v>7698416148</v>
       </c>
     </row>
     <row r="60">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3313558781</v>
+        <v>2677343565</v>
       </c>
     </row>
     <row r="61">
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1010727257</v>
+        <v>8561774727</v>
       </c>
     </row>
     <row r="62">
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>8497048466</v>
+        <v>9133797354</v>
       </c>
     </row>
     <row r="63">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>6657876501</v>
+        <v>3504761472</v>
       </c>
     </row>
     <row r="64">
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>6305140165</v>
+        <v>9877314371</v>
       </c>
     </row>
     <row r="65">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>7938702485</v>
+        <v>5914552178</v>
       </c>
     </row>
     <row r="66">
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>6171262000</v>
+        <v>7334564183</v>
       </c>
     </row>
     <row r="67">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4686870706</v>
+        <v>9913033605</v>
       </c>
     </row>
     <row r="68">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>5087573773</v>
+        <v>1454840967</v>
       </c>
     </row>
     <row r="69">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2012587162</v>
+        <v>5360087426</v>
       </c>
     </row>
     <row r="70">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4248166921</v>
+        <v>5408371643</v>
       </c>
     </row>
     <row r="71">
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>6359652394</v>
+        <v>3223030630</v>
       </c>
     </row>
     <row r="72">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>9005936192</v>
+        <v>583082665</v>
       </c>
     </row>
     <row r="73">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4085647097</v>
+        <v>4211949732</v>
       </c>
     </row>
     <row r="74">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2446728783</v>
+        <v>5981773811</v>
       </c>
     </row>
     <row r="75">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>9769607111</v>
+        <v>769950142</v>
       </c>
     </row>
     <row r="76">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>7950033543</v>
+        <v>7702657689</v>
       </c>
     </row>
     <row r="77">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5228029665</v>
+        <v>2606483604</v>
       </c>
     </row>
     <row r="78">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>6350800948</v>
+        <v>3885199936</v>
       </c>
     </row>
     <row r="79">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5828255970</v>
+        <v>2914826523</v>
       </c>
     </row>
     <row r="80">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2486734032</v>
+        <v>635197445</v>
       </c>
     </row>
     <row r="81">
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>7331051700</v>
+        <v>1941955738</v>
       </c>
     </row>
     <row r="82">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>753696284</v>
+        <v>3600599414</v>
       </c>
     </row>
     <row r="83">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3917239727</v>
+        <v>7720870450</v>
       </c>
     </row>
     <row r="84">
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>7887878075</v>
+        <v>1219157677</v>
       </c>
     </row>
     <row r="85">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3210672387</v>
+        <v>9205391846</v>
       </c>
     </row>
     <row r="86">
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5829401286</v>
+        <v>7044984918</v>
       </c>
     </row>
     <row r="87">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3386661434</v>
+        <v>9177358992</v>
       </c>
     </row>
     <row r="88">
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4153247743</v>
+        <v>216515488</v>
       </c>
     </row>
     <row r="89">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5735212195</v>
+        <v>9796481540</v>
       </c>
     </row>
     <row r="90">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>9561181384</v>
+        <v>5464720948</v>
       </c>
     </row>
     <row r="91">
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>841869597</v>
+        <v>8520574461</v>
       </c>
     </row>
     <row r="92">
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2669637209</v>
+        <v>7435978111</v>
       </c>
     </row>
     <row r="93">
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>6985532411</v>
+        <v>6655984642</v>
       </c>
     </row>
     <row r="94">
@@ -4973,7 +4973,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3432390622</v>
+        <v>7411137732</v>
       </c>
     </row>
     <row r="95">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2424214498</v>
+        <v>4155808150</v>
       </c>
     </row>
     <row r="96">
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>9447990856</v>
+        <v>8123081309</v>
       </c>
     </row>
     <row r="97">
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>8853105971</v>
+        <v>3692666198</v>
       </c>
     </row>
     <row r="98">
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5502535432</v>
+        <v>167235066</v>
       </c>
     </row>
     <row r="99">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>8723214554</v>
+        <v>5225336923</v>
       </c>
     </row>
     <row r="100">
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3646390493</v>
+        <v>7841812948</v>
       </c>
     </row>
     <row r="101">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>9780633429</v>
+        <v>6042432984</v>
       </c>
     </row>
     <row r="102">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>8469930788</v>
+        <v>707149433</v>
       </c>
     </row>
     <row r="103">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2323178844</v>
+        <v>7884740971</v>
       </c>
     </row>
     <row r="104">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>6828779422</v>
+        <v>5465075543</v>
       </c>
     </row>
     <row r="105">
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>5629253426</v>
+        <v>4104378998</v>
       </c>
     </row>
     <row r="106">
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>9960335349</v>
+        <v>595842307</v>
       </c>
     </row>
     <row r="107">
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2551868349</v>
+        <v>8437250978</v>
       </c>
     </row>
     <row r="108">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>5211540720</v>
+        <v>6023841422</v>
       </c>
     </row>
     <row r="109">
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>854078965</v>
+        <v>4743178687</v>
       </c>
     </row>
     <row r="110">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3048891355</v>
+        <v>7276463823</v>
       </c>
     </row>
     <row r="111">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>9669192370</v>
+        <v>9235336251</v>
       </c>
     </row>
     <row r="112">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>9629600600</v>
+        <v>3196737978</v>
       </c>
     </row>
     <row r="113">
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3156368168</v>
+        <v>319698192</v>
       </c>
     </row>
     <row r="114">
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>6710863366</v>
+        <v>928618331</v>
       </c>
     </row>
     <row r="115">
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3443466760</v>
+        <v>9287388466</v>
       </c>
     </row>
     <row r="116">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3705428731</v>
+        <v>2943080091</v>
       </c>
     </row>
     <row r="117">
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4510571082</v>
+        <v>4293273296</v>
       </c>
     </row>
     <row r="118">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6606998684</v>
+        <v>7977001985</v>
       </c>
     </row>
     <row r="119">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>9784237625</v>
+        <v>8985294225</v>
       </c>
     </row>
     <row r="120">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4884667215</v>
+        <v>9811962224</v>
       </c>
     </row>
     <row r="121">
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>6703392099</v>
+        <v>5975032</v>
       </c>
     </row>
     <row r="122">
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>6644848048</v>
+        <v>8594479473</v>
       </c>
     </row>
     <row r="123">
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1669729334</v>
+        <v>277916159</v>
       </c>
     </row>
     <row r="124">
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4198997107</v>
+        <v>1224256893</v>
       </c>
     </row>
     <row r="125">
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>118301987</v>
+        <v>1835464110</v>
       </c>
     </row>
     <row r="126">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2319596273</v>
+        <v>6707911492</v>
       </c>
     </row>
     <row r="127">
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1561569361</v>
+        <v>3961363185</v>
       </c>
     </row>
     <row r="128">
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>8654091983</v>
+        <v>8692435546</v>
       </c>
     </row>
     <row r="129">
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>5574180943</v>
+        <v>33122664</v>
       </c>
     </row>
     <row r="130">
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>6075298139</v>
+        <v>503550236</v>
       </c>
     </row>
     <row r="131">
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4474547683</v>
+        <v>6474573269</v>
       </c>
     </row>
     <row r="132">
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3218234337</v>
+        <v>715838877</v>
       </c>
     </row>
     <row r="133">
@@ -6839,7 +6839,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2303936058</v>
+        <v>8031874808</v>
       </c>
     </row>
     <row r="134">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>5624556918</v>
+        <v>7047098625</v>
       </c>
     </row>
     <row r="135">
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2279504576</v>
+        <v>8960353342</v>
       </c>
     </row>
     <row r="136">
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>6292681967</v>
+        <v>6801667775</v>
       </c>
     </row>
     <row r="137">
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>8556635593</v>
+        <v>7682843793</v>
       </c>
     </row>
     <row r="138">
@@ -7079,7 +7079,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3394511631</v>
+        <v>8756053837</v>
       </c>
     </row>
     <row r="139">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>8498436754</v>
+        <v>4558385376</v>
       </c>
     </row>
     <row r="140">
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3167984918</v>
+        <v>5512079698</v>
       </c>
     </row>
     <row r="141">
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1387823716</v>
+        <v>5343095995</v>
       </c>
     </row>
     <row r="142">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>133143502</v>
+        <v>2490170225</v>
       </c>
     </row>
     <row r="143">
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2373056180</v>
+        <v>253164816</v>
       </c>
     </row>
     <row r="144">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>130827569</v>
+        <v>8195145022</v>
       </c>
     </row>
     <row r="145">
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3687598790</v>
+        <v>860831514</v>
       </c>
     </row>
     <row r="146">
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>5311704785</v>
+        <v>1005971901</v>
       </c>
     </row>
     <row r="147">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1583118533</v>
+        <v>1677182137</v>
       </c>
     </row>
     <row r="148">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>6263996661</v>
+        <v>1632784523</v>
       </c>
     </row>
     <row r="149">
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>5267558101</v>
+        <v>8370174366</v>
       </c>
     </row>
     <row r="150">
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>9409302222</v>
+        <v>371308516</v>
       </c>
     </row>
     <row r="151">
@@ -7695,7 +7695,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>480985701</v>
+        <v>9324168574</v>
       </c>
     </row>
     <row r="152">
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4610883913</v>
+        <v>5307259710</v>
       </c>
     </row>
     <row r="153">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4436666834</v>
+        <v>1502542721</v>
       </c>
     </row>
     <row r="154">
@@ -7833,7 +7833,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1999096863</v>
+        <v>8449913314</v>
       </c>
     </row>
     <row r="155">
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>5206460624</v>
+        <v>6425947032</v>
       </c>
     </row>
     <row r="156">
@@ -7925,7 +7925,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>8362221400</v>
+        <v>3122592096</v>
       </c>
     </row>
     <row r="157">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3318058532</v>
+        <v>4676266733</v>
       </c>
     </row>
     <row r="158">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1569620570</v>
+        <v>8532057277</v>
       </c>
     </row>
     <row r="159">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4415915170</v>
+        <v>1257755785</v>
       </c>
     </row>
     <row r="160">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>488436301</v>
+        <v>3549784646</v>
       </c>
     </row>
     <row r="161">
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>7186480736</v>
+        <v>4742675482</v>
       </c>
     </row>
     <row r="162">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>9802339375</v>
+        <v>4720097794</v>
       </c>
     </row>
     <row r="163">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1969573862</v>
+        <v>1497703830</v>
       </c>
     </row>
     <row r="164">
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>7756226088</v>
+        <v>2425446807</v>
       </c>
     </row>
     <row r="165">
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>8700866104</v>
+        <v>3636615652</v>
       </c>
     </row>
     <row r="166">
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>7734085062</v>
+        <v>689813726</v>
       </c>
     </row>
     <row r="167">
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3333050753</v>
+        <v>7849437816</v>
       </c>
     </row>
     <row r="168">
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>5771675834</v>
+        <v>2885353584</v>
       </c>
     </row>
     <row r="169">
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3526043786</v>
+        <v>3577588960</v>
       </c>
     </row>
     <row r="170">
@@ -8579,7 +8579,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3000978260</v>
+        <v>6118735905</v>
       </c>
     </row>
     <row r="171">
@@ -8625,7 +8625,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>9222382449</v>
+        <v>9664242996</v>
       </c>
     </row>
     <row r="172">
@@ -8673,7 +8673,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1021603832</v>
+        <v>6296826436</v>
       </c>
     </row>
     <row r="173">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4981067219</v>
+        <v>2818795318</v>
       </c>
     </row>
     <row r="174">
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1211802957</v>
+        <v>175525220</v>
       </c>
     </row>
     <row r="175">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>6688675179</v>
+        <v>2116783943</v>
       </c>
     </row>
     <row r="176">
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>5298996049</v>
+        <v>4790177926</v>
       </c>
     </row>
     <row r="177">
@@ -8915,7 +8915,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1726047112</v>
+        <v>1291929567</v>
       </c>
     </row>
     <row r="178">
@@ -8963,7 +8963,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>5079012833</v>
+        <v>5509408666</v>
       </c>
     </row>
     <row r="179">
@@ -9011,7 +9011,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>137068161</v>
+        <v>5229797956</v>
       </c>
     </row>
     <row r="180">
@@ -9059,7 +9059,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>5779712100</v>
+        <v>3964318492</v>
       </c>
     </row>
     <row r="181">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>515785267</v>
+        <v>5563087868</v>
       </c>
     </row>
     <row r="182">
@@ -9155,7 +9155,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>5305094149</v>
+        <v>1720496865</v>
       </c>
     </row>
     <row r="183">
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2789545105</v>
+        <v>4785782457</v>
       </c>
     </row>
     <row r="184">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>6043135217</v>
+        <v>4794428490</v>
       </c>
     </row>
     <row r="185">
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>574919630</v>
+        <v>4059625177</v>
       </c>
     </row>
     <row r="186">
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>5153659224</v>
+        <v>8173712717</v>
       </c>
     </row>
     <row r="187">
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>637119089</v>
+        <v>6046534328</v>
       </c>
     </row>
     <row r="188">
@@ -9439,7 +9439,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>6733101866</v>
+        <v>7032717500</v>
       </c>
     </row>
     <row r="189">
@@ -9485,7 +9485,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3594738485</v>
+        <v>4153943513</v>
       </c>
     </row>
     <row r="190">
@@ -9533,7 +9533,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>8533494570</v>
+        <v>8185175455</v>
       </c>
     </row>
     <row r="191">
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>7817693630</v>
+        <v>8676328898</v>
       </c>
     </row>
     <row r="192">
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1419743687</v>
+        <v>605745554</v>
       </c>
     </row>
     <row r="193">
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>770276100</v>
+        <v>4017943948</v>
       </c>
     </row>
     <row r="194">
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2166342179</v>
+        <v>5104979530</v>
       </c>
     </row>
     <row r="195">
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2254445867</v>
+        <v>2753288085</v>
       </c>
     </row>
     <row r="196">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3623865515</v>
+        <v>848259177</v>
       </c>
     </row>
     <row r="197">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>5026083529</v>
+        <v>1639073058</v>
       </c>
     </row>
     <row r="198">
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>7609805180</v>
+        <v>6456396382</v>
       </c>
     </row>
     <row r="199">
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2151168077</v>
+        <v>645494527</v>
       </c>
     </row>
     <row r="200">
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>7739104321</v>
+        <v>6766544769</v>
       </c>
     </row>
     <row r="201">
@@ -10065,7 +10065,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4094922165</v>
+        <v>5880489152</v>
       </c>
     </row>
     <row r="202">
@@ -10113,7 +10113,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>9622327264</v>
+        <v>3360725866</v>
       </c>
     </row>
     <row r="203">
@@ -10161,7 +10161,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5335785452</v>
+        <v>3691258674</v>
       </c>
     </row>
     <row r="204">
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>5669895777</v>
+        <v>9139095642</v>
       </c>
     </row>
     <row r="205">
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2156108537</v>
+        <v>6107906270</v>
       </c>
     </row>
     <row r="206">
@@ -10311,7 +10311,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>289285459</v>
+        <v>4068188024</v>
       </c>
     </row>
     <row r="207">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2519115486</v>
+        <v>6097661563</v>
       </c>
     </row>
     <row r="208">
@@ -10409,7 +10409,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1633279689</v>
+        <v>3724703510</v>
       </c>
     </row>
     <row r="209">
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>7118728543</v>
+        <v>5742277823</v>
       </c>
     </row>
     <row r="210">
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3260223735</v>
+        <v>1302581311</v>
       </c>
     </row>
     <row r="211">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1459074829</v>
+        <v>301847531</v>
       </c>
     </row>
     <row r="212">
@@ -10605,7 +10605,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>9264266359</v>
+        <v>9291031698</v>
       </c>
     </row>
     <row r="213">
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>8366642870</v>
+        <v>4750641451</v>
       </c>
     </row>
     <row r="214">
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>9543719148</v>
+        <v>3078861010</v>
       </c>
     </row>
     <row r="215">
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3668655514</v>
+        <v>1470500695</v>
       </c>
     </row>
     <row r="216">
@@ -10795,7 +10795,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>2951764490</v>
+        <v>8499088069</v>
       </c>
     </row>
     <row r="217">
@@ -10843,7 +10843,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3378847165</v>
+        <v>7073818305</v>
       </c>
     </row>
     <row r="218">
@@ -10893,7 +10893,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>62170945</v>
+        <v>7883637345</v>
       </c>
     </row>
     <row r="219">
@@ -10943,7 +10943,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3283670875</v>
+        <v>2024361641</v>
       </c>
     </row>
     <row r="220">
@@ -10991,7 +10991,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3974801665</v>
+        <v>8103836142</v>
       </c>
     </row>
     <row r="221">
@@ -11039,7 +11039,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>2490764142</v>
+        <v>9659413514</v>
       </c>
     </row>
     <row r="222">
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>9620147927</v>
+        <v>4810315239</v>
       </c>
     </row>
     <row r="223">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>2576602089</v>
+        <v>1347274002</v>
       </c>
     </row>
     <row r="224">
@@ -11181,7 +11181,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>981402843</v>
+        <v>3016254546</v>
       </c>
     </row>
     <row r="225">
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>5179397696</v>
+        <v>9164791719</v>
       </c>
     </row>
     <row r="226">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2285057004</v>
+        <v>5276574268</v>
       </c>
     </row>
     <row r="227">
@@ -11325,7 +11325,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2804103530</v>
+        <v>8873353791</v>
       </c>
     </row>
     <row r="228">
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2904791046</v>
+        <v>6042960475</v>
       </c>
     </row>
     <row r="229">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>4096687199</v>
+        <v>9451149611</v>
       </c>
     </row>
     <row r="230">
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>9008433731</v>
+        <v>9498181052</v>
       </c>
     </row>
     <row r="231">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>6053214111</v>
+        <v>8662665581</v>
       </c>
     </row>
     <row r="232">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>658591370</v>
+        <v>8021725274</v>
       </c>
     </row>
     <row r="233">
@@ -11613,7 +11613,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>5670041264</v>
+        <v>7027171891</v>
       </c>
     </row>
     <row r="234">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3604894286</v>
+        <v>4687637076</v>
       </c>
     </row>
     <row r="235">
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>8005234957</v>
+        <v>106198699</v>
       </c>
     </row>
     <row r="236">
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>6471387324</v>
+        <v>5747396514</v>
       </c>
     </row>
     <row r="237">
@@ -11803,7 +11803,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>4057267189</v>
+        <v>2838625222</v>
       </c>
     </row>
     <row r="238">
@@ -11851,7 +11851,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>5690494467</v>
+        <v>7874768645</v>
       </c>
     </row>
     <row r="239">
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>7741729069</v>
+        <v>4341336118</v>
       </c>
     </row>
     <row r="240">
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>726884274</v>
+        <v>7101310811</v>
       </c>
     </row>
     <row r="241">
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>9426703594</v>
+        <v>887654381</v>
       </c>
     </row>
     <row r="242">
@@ -12037,7 +12037,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>7368080335</v>
+        <v>2932718842</v>
       </c>
     </row>
     <row r="243">
@@ -12083,7 +12083,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3621805786</v>
+        <v>1406209931</v>
       </c>
     </row>
     <row r="244">
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>8468090555</v>
+        <v>3909536815</v>
       </c>
     </row>
     <row r="245">
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1354007694</v>
+        <v>6167542452</v>
       </c>
     </row>
     <row r="246">
@@ -12223,7 +12223,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>9232352285</v>
+        <v>7724139992</v>
       </c>
     </row>
     <row r="247">
@@ -12269,7 +12269,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2818937501</v>
+        <v>960387912</v>
       </c>
     </row>
     <row r="248">
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1080009966</v>
+        <v>5016697431</v>
       </c>
     </row>
     <row r="249">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>5503124979</v>
+        <v>9751592967</v>
       </c>
     </row>
     <row r="250">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3686933498</v>
+        <v>5213255379</v>
       </c>
     </row>
     <row r="251">
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>5504202211</v>
+        <v>4766820851</v>
       </c>
     </row>
     <row r="252">
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3624842999</v>
+        <v>9441274347</v>
       </c>
     </row>
     <row r="253">
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>309124539</v>
+        <v>5793752677</v>
       </c>
     </row>
     <row r="254">
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>9104846</v>
+        <v>6645776226</v>
       </c>
     </row>
     <row r="255">
@@ -12639,7 +12639,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>9322392331</v>
+        <v>8017635616</v>
       </c>
     </row>
     <row r="256">
@@ -12685,7 +12685,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>5446207683</v>
+        <v>9838699192</v>
       </c>
     </row>
     <row r="257">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>6187035108</v>
+        <v>5556639366</v>
       </c>
     </row>
     <row r="258">
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>464549200</v>
+        <v>9360985865</v>
       </c>
     </row>
     <row r="259">
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3697606821</v>
+        <v>8334625824</v>
       </c>
     </row>
     <row r="260">
@@ -12869,7 +12869,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3223363259</v>
+        <v>539795364</v>
       </c>
     </row>
     <row r="261">
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>5147456277</v>
+        <v>8085275414</v>
       </c>
     </row>
     <row r="262">
@@ -12963,7 +12963,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>7465971243</v>
+        <v>2956022158</v>
       </c>
     </row>
     <row r="263">
@@ -13013,7 +13013,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>421483359</v>
+        <v>5176814397</v>
       </c>
     </row>
     <row r="264">
@@ -13061,7 +13061,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3783053219</v>
+        <v>3245696854</v>
       </c>
     </row>
     <row r="265">
@@ -13109,7 +13109,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>5366261373</v>
+        <v>9227574889</v>
       </c>
     </row>
     <row r="266">
@@ -13157,7 +13157,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>8354478354</v>
+        <v>9364051727</v>
       </c>
     </row>
     <row r="267">
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>969983658</v>
+        <v>442607901</v>
       </c>
     </row>
     <row r="268">
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>6355358673</v>
+        <v>5116095730</v>
       </c>
     </row>
     <row r="269">
@@ -13301,7 +13301,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>7936486001</v>
+        <v>8811870850</v>
       </c>
     </row>
     <row r="270">
@@ -13349,7 +13349,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>1781012876</v>
+        <v>1282490953</v>
       </c>
     </row>
     <row r="271">
@@ -13395,7 +13395,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>7856638449</v>
+        <v>8263543720</v>
       </c>
     </row>
     <row r="272">
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>9941244783</v>
+        <v>9134380576</v>
       </c>
     </row>
     <row r="273">
@@ -13489,7 +13489,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1081960674</v>
+        <v>6233700835</v>
       </c>
     </row>
     <row r="274">
@@ -13537,7 +13537,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3334140236</v>
+        <v>2215728310</v>
       </c>
     </row>
     <row r="275">
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>7067695983</v>
+        <v>4482914430</v>
       </c>
     </row>
     <row r="276">
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>5158968102</v>
+        <v>5518681079</v>
       </c>
     </row>
     <row r="277">
@@ -13673,7 +13673,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>6160587565</v>
+        <v>1621838075</v>
       </c>
     </row>
     <row r="278">
@@ -13719,7 +13719,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3974958694</v>
+        <v>6611017007</v>
       </c>
     </row>
     <row r="279">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1225593834</v>
+        <v>3908400686</v>
       </c>
     </row>
     <row r="280">
@@ -13813,7 +13813,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>4088733551</v>
+        <v>5895739230</v>
       </c>
     </row>
     <row r="281">
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>8822566758</v>
+        <v>2912113524</v>
       </c>
     </row>
     <row r="282">
@@ -13905,7 +13905,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>6729946454</v>
+        <v>779377231</v>
       </c>
     </row>
     <row r="283">
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>2944589992</v>
+        <v>2725858773</v>
       </c>
     </row>
     <row r="284">
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>9934126811</v>
+        <v>3012172306</v>
       </c>
     </row>
     <row r="285">
@@ -14047,7 +14047,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>4610205671</v>
+        <v>3197657967</v>
       </c>
     </row>
     <row r="286">
@@ -14095,7 +14095,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1011536099</v>
+        <v>138385927</v>
       </c>
     </row>
     <row r="287">
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>6455416636</v>
+        <v>1905485741</v>
       </c>
     </row>
     <row r="288">
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>9985187071</v>
+        <v>8884525097</v>
       </c>
     </row>
     <row r="289">
@@ -14239,7 +14239,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>6130571191</v>
+        <v>6014074714</v>
       </c>
     </row>
     <row r="290">
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>9948909507</v>
+        <v>3947175252</v>
       </c>
     </row>
     <row r="291">
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>9231697042</v>
+        <v>9453198645</v>
       </c>
     </row>
     <row r="292">
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>2335981393</v>
+        <v>6112597529</v>
       </c>
     </row>
     <row r="293">
@@ -14431,7 +14431,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>8907080354</v>
+        <v>1138853418</v>
       </c>
     </row>
     <row r="294">
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1891798158</v>
+        <v>7474037861</v>
       </c>
     </row>
     <row r="295">
@@ -14525,7 +14525,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1380707374</v>
+        <v>4821585001</v>
       </c>
     </row>
     <row r="296">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1310390012</v>
+        <v>5137051338</v>
       </c>
     </row>
     <row r="297">
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>301868160</v>
+        <v>5290694788</v>
       </c>
     </row>
     <row r="298">
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>6988317951</v>
+        <v>4329436256</v>
       </c>
     </row>
     <row r="299">
@@ -14713,7 +14713,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>4714187406</v>
+        <v>1423596981</v>
       </c>
     </row>
     <row r="300">
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3750290253</v>
+        <v>6702473900</v>
       </c>
     </row>
     <row r="301">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>6999017531</v>
+        <v>4807799319</v>
       </c>
     </row>
     <row r="302">
@@ -14853,7 +14853,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>6352117522</v>
+        <v>5659318990</v>
       </c>
     </row>
     <row r="303">
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>8669444630</v>
+        <v>8308833755</v>
       </c>
     </row>
     <row r="304">
@@ -14947,7 +14947,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3794552542</v>
+        <v>3095785718</v>
       </c>
     </row>
     <row r="305">
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>713622513</v>
+        <v>7342143533</v>
       </c>
     </row>
     <row r="306">
@@ -15041,7 +15041,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3474288670</v>
+        <v>3697521515</v>
       </c>
     </row>
     <row r="307">
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>2350577315</v>
+        <v>3884857276</v>
       </c>
     </row>
     <row r="308">
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3618328255</v>
+        <v>428810100</v>
       </c>
     </row>
     <row r="309">
@@ -15183,7 +15183,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1897231834</v>
+        <v>174140261</v>
       </c>
     </row>
     <row r="310">
@@ -15229,7 +15229,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>2470217893</v>
+        <v>5438750553</v>
       </c>
     </row>
     <row r="311">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>9701725322</v>
+        <v>5243487253</v>
       </c>
     </row>
     <row r="312">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>9088962513</v>
+        <v>9921499831</v>
       </c>
     </row>
     <row r="313">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>2577091503</v>
+        <v>7479990138</v>
       </c>
     </row>
     <row r="314">
@@ -15415,7 +15415,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4247386947</v>
+        <v>5326639363</v>
       </c>
     </row>
     <row r="315">
@@ -15463,7 +15463,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>9347435010</v>
+        <v>970871026</v>
       </c>
     </row>
     <row r="316">
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>8262526183</v>
+        <v>7184914943</v>
       </c>
     </row>
     <row r="317">
@@ -15559,7 +15559,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4351659931</v>
+        <v>5761703921</v>
       </c>
     </row>
     <row r="318">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>5191731523</v>
+        <v>7252736980</v>
       </c>
     </row>
     <row r="319">
@@ -15655,7 +15655,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>9190605213</v>
+        <v>7063235444</v>
       </c>
     </row>
     <row r="320">
@@ -15701,7 +15701,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>3994352316</v>
+        <v>6438766079</v>
       </c>
     </row>
     <row r="321">
@@ -15747,7 +15747,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>7887272075</v>
+        <v>9943982035</v>
       </c>
     </row>
     <row r="322">
@@ -15793,7 +15793,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>3575501942</v>
+        <v>9192774448</v>
       </c>
     </row>
     <row r="323">
@@ -15839,7 +15839,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>7156501563</v>
+        <v>8099680969</v>
       </c>
     </row>
     <row r="324">
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>9357705080</v>
+        <v>52199340</v>
       </c>
     </row>
     <row r="325">
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1928881567</v>
+        <v>5223413004</v>
       </c>
     </row>
     <row r="326">
@@ -15977,7 +15977,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>7767801271</v>
+        <v>3776660387</v>
       </c>
     </row>
     <row r="327">
@@ -16027,7 +16027,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>8805615498</v>
+        <v>8541478566</v>
       </c>
     </row>
     <row r="328">
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>2417379001</v>
+        <v>194055269</v>
       </c>
     </row>
     <row r="329">
@@ -16123,7 +16123,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>6986186482</v>
+        <v>5400558580</v>
       </c>
     </row>
     <row r="330">
@@ -16169,7 +16169,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3064692498</v>
+        <v>7117131203</v>
       </c>
     </row>
     <row r="331">
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>1384357361</v>
+        <v>8146961641</v>
       </c>
     </row>
     <row r="332">
@@ -16261,7 +16261,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>6409401087</v>
+        <v>4227562081</v>
       </c>
     </row>
     <row r="333">
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>5833300813</v>
+        <v>6978081783</v>
       </c>
     </row>
     <row r="334">
@@ -16353,7 +16353,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>260179270</v>
+        <v>1111262555</v>
       </c>
     </row>
     <row r="335">
@@ -16399,7 +16399,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>6190363066</v>
+        <v>8243795999</v>
       </c>
     </row>
     <row r="336">
@@ -16447,7 +16447,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>6500191016</v>
+        <v>3261073196</v>
       </c>
     </row>
     <row r="337">
@@ -16493,7 +16493,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>5858811245</v>
+        <v>4227889249</v>
       </c>
     </row>
     <row r="338">
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>2206592158</v>
+        <v>2972392178</v>
       </c>
     </row>
     <row r="339">
@@ -16591,7 +16591,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1601762186</v>
+        <v>5887263757</v>
       </c>
     </row>
     <row r="340">
@@ -16639,7 +16639,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>3823309320</v>
+        <v>7452670137</v>
       </c>
     </row>
     <row r="341">
@@ -16687,7 +16687,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>4795495741</v>
+        <v>8512692437</v>
       </c>
     </row>
     <row r="342">
@@ -16733,7 +16733,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2743678379</v>
+        <v>899549017</v>
       </c>
     </row>
     <row r="343">
@@ -16781,7 +16781,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>2056574316</v>
+        <v>5525997044</v>
       </c>
     </row>
     <row r="344">
@@ -16829,7 +16829,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>6829501992</v>
+        <v>9364618586</v>
       </c>
     </row>
     <row r="345">
@@ -16875,7 +16875,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>5720937988</v>
+        <v>6836608165</v>
       </c>
     </row>
     <row r="346">
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>547280415</v>
+        <v>5685711833</v>
       </c>
     </row>
     <row r="347">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>7774436973</v>
+        <v>6176969230</v>
       </c>
     </row>
     <row r="348">
@@ -17017,7 +17017,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>3322679222</v>
+        <v>6905405550</v>
       </c>
     </row>
     <row r="349">
@@ -17063,7 +17063,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>5136072767</v>
+        <v>8983321995</v>
       </c>
     </row>
     <row r="350">
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>3749381514</v>
+        <v>5854207827</v>
       </c>
     </row>
     <row r="351">
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>2465272672</v>
+        <v>5206200573</v>
       </c>
     </row>
     <row r="352">
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>5590151020</v>
+        <v>3163838585</v>
       </c>
     </row>
     <row r="353">
@@ -17251,7 +17251,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>3200688815</v>
+        <v>5673591020</v>
       </c>
     </row>
     <row r="354">
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>1813611541</v>
+        <v>3885628136</v>
       </c>
     </row>
     <row r="355">
@@ -17347,7 +17347,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>9131316788</v>
+        <v>3340605311</v>
       </c>
     </row>
     <row r="356">
@@ -17395,7 +17395,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>6587763772</v>
+        <v>1874119709</v>
       </c>
     </row>
     <row r="357">
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>3306516227</v>
+        <v>9511502165</v>
       </c>
     </row>
     <row r="358">
@@ -17491,7 +17491,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1906982147</v>
+        <v>4548108467</v>
       </c>
     </row>
     <row r="359">
@@ -17539,7 +17539,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>9050257338</v>
+        <v>8788474896</v>
       </c>
     </row>
     <row r="360">
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>9888689105</v>
+        <v>1453291836</v>
       </c>
     </row>
     <row r="361">
@@ -17635,7 +17635,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>8235498602</v>
+        <v>1539413330</v>
       </c>
     </row>
     <row r="362">
@@ -17683,7 +17683,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>5228739517</v>
+        <v>4738310615</v>
       </c>
     </row>
     <row r="363">
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2334611993</v>
+        <v>826907383</v>
       </c>
     </row>
     <row r="364">
@@ -17779,7 +17779,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>86749950</v>
+        <v>2196919736</v>
       </c>
     </row>
     <row r="365">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1824651611</v>
+        <v>5340009329</v>
       </c>
     </row>
     <row r="366">
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>3795667866</v>
+        <v>2539648226</v>
       </c>
     </row>
     <row r="367">
@@ -17923,7 +17923,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2798846579</v>
+        <v>5177100565</v>
       </c>
     </row>
     <row r="368">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>7517219655</v>
+        <v>8940355801</v>
       </c>
     </row>
     <row r="369">
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>8894612669</v>
+        <v>8845051967</v>
       </c>
     </row>
     <row r="370">
@@ -18067,7 +18067,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2435617765</v>
+        <v>3728532498</v>
       </c>
     </row>
     <row r="371">
@@ -18115,7 +18115,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>3251670773</v>
+        <v>9211091737</v>
       </c>
     </row>
     <row r="372">
@@ -18161,7 +18161,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>8251551623</v>
+        <v>1437864040</v>
       </c>
     </row>
     <row r="373">
@@ -18207,7 +18207,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>7903186303</v>
+        <v>7175216434</v>
       </c>
     </row>
     <row r="374">
@@ -18253,7 +18253,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>824698716</v>
+        <v>9335955927</v>
       </c>
     </row>
     <row r="375">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>6788540565</v>
+        <v>8517891151</v>
       </c>
     </row>
     <row r="376">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>9037783470</v>
+        <v>1766383187</v>
       </c>
     </row>
     <row r="377">
@@ -18393,7 +18393,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>7698416117</v>
+        <v>3132886914</v>
       </c>
     </row>
     <row r="378">
@@ -18439,7 +18439,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>4611150763</v>
+        <v>44087329</v>
       </c>
     </row>
     <row r="379">
@@ -18485,7 +18485,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2778540169</v>
+        <v>5205159729</v>
       </c>
     </row>
     <row r="380">
@@ -18533,7 +18533,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>7431977539</v>
+        <v>6727013148</v>
       </c>
     </row>
     <row r="381">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>9645854169</v>
+        <v>3737565650</v>
       </c>
     </row>
     <row r="382">
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>4978007346</v>
+        <v>4851640370</v>
       </c>
     </row>
     <row r="383">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>2907503341</v>
+        <v>6868105854</v>
       </c>
     </row>
     <row r="384">
@@ -18719,7 +18719,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>9234555159</v>
+        <v>3263213184</v>
       </c>
     </row>
     <row r="385">
@@ -18767,7 +18767,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>6644778310</v>
+        <v>6550368753</v>
       </c>
     </row>
     <row r="386">
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>4638715663</v>
+        <v>2245421494</v>
       </c>
     </row>
     <row r="387">
@@ -18863,7 +18863,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>1935473989</v>
+        <v>1764769578</v>
       </c>
     </row>
     <row r="388">
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>324521211</v>
+        <v>2878014971</v>
       </c>
     </row>
     <row r="389">
@@ -18959,7 +18959,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>2346976579</v>
+        <v>6352343663</v>
       </c>
     </row>
     <row r="390">
@@ -19007,7 +19007,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4280458065</v>
+        <v>8067372852</v>
       </c>
     </row>
     <row r="391">
@@ -19055,7 +19055,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>7831342210</v>
+        <v>1051187755</v>
       </c>
     </row>
     <row r="392">
@@ -19103,7 +19103,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>5351599012</v>
+        <v>6879863304</v>
       </c>
     </row>
     <row r="393">
@@ -19151,7 +19151,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>8989498671</v>
+        <v>7256038933</v>
       </c>
     </row>
     <row r="394">
@@ -19199,7 +19199,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>7295495010</v>
+        <v>9688054499</v>
       </c>
     </row>
     <row r="395">
@@ -19247,7 +19247,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>325154990</v>
+        <v>814545023</v>
       </c>
     </row>
     <row r="396">
@@ -19295,7 +19295,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>6476726777</v>
+        <v>4053589396</v>
       </c>
     </row>
     <row r="397">
@@ -19343,7 +19343,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>8083011173</v>
+        <v>3490850262</v>
       </c>
     </row>
     <row r="398">
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>3777475328</v>
+        <v>4749863151</v>
       </c>
     </row>
     <row r="399">
@@ -19439,7 +19439,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>3343391479</v>
+        <v>2997508968</v>
       </c>
     </row>
     <row r="400">
@@ -19487,7 +19487,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2800287896</v>
+        <v>3904880345</v>
       </c>
     </row>
     <row r="401">
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>9435757363</v>
+        <v>4443607924</v>
       </c>
     </row>
     <row r="402">
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2484782535</v>
+        <v>5177582272</v>
       </c>
     </row>
     <row r="403">
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>9227988035</v>
+        <v>2792925896</v>
       </c>
     </row>
     <row r="404">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>2450006336</v>
+        <v>2891449200</v>
       </c>
     </row>
     <row r="405">
@@ -19725,7 +19725,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2600502579</v>
+        <v>6474542504</v>
       </c>
     </row>
     <row r="406">
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1795905580</v>
+        <v>7606814757</v>
       </c>
     </row>
     <row r="407">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>1296816348</v>
+        <v>2712359814</v>
       </c>
     </row>
     <row r="408">
@@ -19867,7 +19867,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>5548797018</v>
+        <v>6166086492</v>
       </c>
     </row>
     <row r="409">
@@ -19913,7 +19913,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>5316055876</v>
+        <v>6190382034</v>
       </c>
     </row>
     <row r="410">
@@ -19959,7 +19959,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>3032424652</v>
+        <v>7434971149</v>
       </c>
     </row>
     <row r="411">
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1032900856</v>
+        <v>4206573071</v>
       </c>
     </row>
     <row r="412">
@@ -20051,7 +20051,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>346258279</v>
+        <v>7920466307</v>
       </c>
     </row>
     <row r="413">
@@ -20097,7 +20097,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>5200980185</v>
+        <v>8473257619</v>
       </c>
     </row>
     <row r="414">
@@ -20145,7 +20145,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>5971923618</v>
+        <v>8693884193</v>
       </c>
     </row>
     <row r="415">
@@ -20193,7 +20193,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3511856933</v>
+        <v>4283956397</v>
       </c>
     </row>
     <row r="416">
@@ -20239,7 +20239,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>4201690159</v>
+        <v>4503243345</v>
       </c>
     </row>
     <row r="417">
@@ -20285,7 +20285,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>6162685267</v>
+        <v>5548807143</v>
       </c>
     </row>
     <row r="418">
@@ -20331,7 +20331,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>8969822249</v>
+        <v>3588319885</v>
       </c>
     </row>
     <row r="419">
@@ -20379,7 +20379,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>6201116646</v>
+        <v>3405712864</v>
       </c>
     </row>
     <row r="420">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>4513583623</v>
+        <v>2140771277</v>
       </c>
     </row>
     <row r="421">
@@ -20475,7 +20475,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>9934295071</v>
+        <v>7644827534</v>
       </c>
     </row>
     <row r="422">
@@ -20525,7 +20525,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>7244100133</v>
+        <v>4171786525</v>
       </c>
     </row>
     <row r="423">
@@ -20573,7 +20573,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1299826545</v>
+        <v>4016408202</v>
       </c>
     </row>
     <row r="424">
@@ -20623,7 +20623,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3946046534</v>
+        <v>7968584171</v>
       </c>
     </row>
     <row r="425">
@@ -20667,7 +20667,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1926022986</v>
+        <v>5464540552</v>
       </c>
     </row>
     <row r="426">
@@ -20715,7 +20715,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3221886964</v>
+        <v>8011929354</v>
       </c>
     </row>
     <row r="427">
@@ -20763,7 +20763,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>3110116415</v>
+        <v>7171052726</v>
       </c>
     </row>
     <row r="428">
@@ -20811,7 +20811,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>6662535991</v>
+        <v>8278847901</v>
       </c>
     </row>
     <row r="429">
@@ -20859,7 +20859,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>7407792710</v>
+        <v>6750587679</v>
       </c>
     </row>
     <row r="430">
@@ -20907,7 +20907,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>3573500957</v>
+        <v>2152611777</v>
       </c>
     </row>
     <row r="431">
@@ -20955,7 +20955,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>7715963240</v>
+        <v>9800604181</v>
       </c>
     </row>
     <row r="432">
@@ -21003,7 +21003,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>4689590771</v>
+        <v>2743642575</v>
       </c>
     </row>
     <row r="433">
@@ -21053,7 +21053,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3229300644</v>
+        <v>8594988308</v>
       </c>
     </row>
     <row r="434">
@@ -21099,7 +21099,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>6048898863</v>
+        <v>1085880923</v>
       </c>
     </row>
     <row r="435">
@@ -21145,7 +21145,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>6359154684</v>
+        <v>5767967800</v>
       </c>
     </row>
     <row r="436">
@@ -21191,7 +21191,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>9188100838</v>
+        <v>7999583801</v>
       </c>
     </row>
     <row r="437">
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3183006089</v>
+        <v>2729471862</v>
       </c>
     </row>
     <row r="438">
@@ -21283,7 +21283,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>3642778828</v>
+        <v>8464487446</v>
       </c>
     </row>
     <row r="439">
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>4202089837</v>
+        <v>3878291398</v>
       </c>
     </row>
     <row r="440">
@@ -21379,7 +21379,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>8174727849</v>
+        <v>2739789475</v>
       </c>
     </row>
     <row r="441">
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>8243316066</v>
+        <v>5595114842</v>
       </c>
     </row>
     <row r="442">
@@ -21473,7 +21473,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>5778108918</v>
+        <v>2111053019</v>
       </c>
     </row>
     <row r="443">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>6011285412</v>
+        <v>4922521026</v>
       </c>
     </row>
     <row r="444">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>9302694844</v>
+        <v>6536113120</v>
       </c>
     </row>
     <row r="445">
@@ -21617,7 +21617,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>6044291</v>
+        <v>3208166760</v>
       </c>
     </row>
     <row r="446">
@@ -21665,7 +21665,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3879488591</v>
+        <v>7619813879</v>
       </c>
     </row>
     <row r="447">
@@ -21713,7 +21713,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>1869587526</v>
+        <v>3852919569</v>
       </c>
     </row>
     <row r="448">
@@ -21761,7 +21761,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3083557868</v>
+        <v>3535866650</v>
       </c>
     </row>
     <row r="449">
@@ -21809,7 +21809,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>7650808159</v>
+        <v>7155224153</v>
       </c>
     </row>
     <row r="450">
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>7540917816</v>
+        <v>403929753</v>
       </c>
     </row>
     <row r="451">
@@ -21903,7 +21903,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>7201251350</v>
+        <v>6102063594</v>
       </c>
     </row>
     <row r="452">
@@ -21949,7 +21949,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2095162558</v>
+        <v>2056765694</v>
       </c>
     </row>
     <row r="453">
@@ -21997,7 +21997,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1620412255</v>
+        <v>7004467247</v>
       </c>
     </row>
     <row r="454">
@@ -22043,7 +22043,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>5937971415</v>
+        <v>5521921956</v>
       </c>
     </row>
     <row r="455">
@@ -22089,7 +22089,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2250323090</v>
+        <v>2617452732</v>
       </c>
     </row>
     <row r="456">
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2852313315</v>
+        <v>4637668373</v>
       </c>
     </row>
     <row r="457">
@@ -22187,7 +22187,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1778836913</v>
+        <v>3236829836</v>
       </c>
     </row>
     <row r="458">
@@ -22237,7 +22237,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>44198088</v>
+        <v>144021784</v>
       </c>
     </row>
     <row r="459">
@@ -22287,7 +22287,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>5271370144</v>
+        <v>144484830</v>
       </c>
     </row>
     <row r="460">
@@ -22335,7 +22335,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>4723526001</v>
+        <v>3566627548</v>
       </c>
     </row>
     <row r="461">
@@ -22381,7 +22381,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>9396873201</v>
+        <v>9156647337</v>
       </c>
     </row>
     <row r="462">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>3102714629</v>
+        <v>1726936032</v>
       </c>
     </row>
     <row r="463">
@@ -22473,7 +22473,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>4657372826</v>
+        <v>8085158720</v>
       </c>
     </row>
     <row r="464">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2529672980</v>
+        <v>3924973805</v>
       </c>
     </row>
     <row r="465">
@@ -22569,7 +22569,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>9111812690</v>
+        <v>1629337086</v>
       </c>
     </row>
     <row r="466">
@@ -22617,7 +22617,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>6529001264</v>
+        <v>5494878399</v>
       </c>
     </row>
     <row r="467">
@@ -22665,7 +22665,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2800758989</v>
+        <v>3657926468</v>
       </c>
     </row>
     <row r="468">
@@ -22713,7 +22713,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1557126576</v>
+        <v>7484459865</v>
       </c>
     </row>
     <row r="469">
@@ -22761,7 +22761,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>9242575230</v>
+        <v>7679492704</v>
       </c>
     </row>
     <row r="470">
@@ -22809,7 +22809,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1222595235</v>
+        <v>3328803789</v>
       </c>
     </row>
     <row r="471">
@@ -22857,7 +22857,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>4019004244</v>
+        <v>2366100126</v>
       </c>
     </row>
     <row r="472">
@@ -22905,7 +22905,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>5177810513</v>
+        <v>6263552215</v>
       </c>
     </row>
     <row r="473">
@@ -22953,7 +22953,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>4648103684</v>
+        <v>6740498971</v>
       </c>
     </row>
     <row r="474">
@@ -23001,7 +23001,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>8758900445</v>
+        <v>3224931780</v>
       </c>
     </row>
     <row r="475">
@@ -23049,7 +23049,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>6361630965</v>
+        <v>8458245964</v>
       </c>
     </row>
     <row r="476">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>8610345868</v>
+        <v>8350294444</v>
       </c>
     </row>
     <row r="477">
@@ -23145,7 +23145,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>6784853459</v>
+        <v>8740601896</v>
       </c>
     </row>
     <row r="478">
@@ -23193,7 +23193,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>5002075167</v>
+        <v>4587674874</v>
       </c>
     </row>
     <row r="479">
@@ -23241,7 +23241,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>9585525606</v>
+        <v>1276433941</v>
       </c>
     </row>
     <row r="480">
@@ -23289,7 +23289,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>9051154969</v>
+        <v>780950047</v>
       </c>
     </row>
     <row r="481">
@@ -23335,7 +23335,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>9647690724</v>
+        <v>8464520581</v>
       </c>
     </row>
     <row r="482">
@@ -23381,7 +23381,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1228103238</v>
+        <v>7542622196</v>
       </c>
     </row>
     <row r="483">
@@ -23429,7 +23429,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>9498740696</v>
+        <v>6434424968</v>
       </c>
     </row>
     <row r="484">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>4278753770</v>
+        <v>4865857547</v>
       </c>
     </row>
     <row r="485">
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>9621462503</v>
+        <v>2326616402</v>
       </c>
     </row>
     <row r="486">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>553719495</v>
+        <v>8591376928</v>
       </c>
     </row>
     <row r="487">
@@ -23619,7 +23619,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>5369869485</v>
+        <v>1536725322</v>
       </c>
     </row>
     <row r="488">
@@ -23667,7 +23667,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>6191966800</v>
+        <v>175300267</v>
       </c>
     </row>
     <row r="489">
@@ -23715,7 +23715,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2245812985</v>
+        <v>2566388023</v>
       </c>
     </row>
     <row r="490">
@@ -23763,7 +23763,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>4187746086</v>
+        <v>9436001572</v>
       </c>
     </row>
     <row r="491">
@@ -23809,7 +23809,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>3717988679</v>
+        <v>1489841533</v>
       </c>
     </row>
     <row r="492">
@@ -23857,7 +23857,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>322361307</v>
+        <v>7826976235</v>
       </c>
     </row>
     <row r="493">
@@ -23907,7 +23907,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>8361894156</v>
+        <v>6901529018</v>
       </c>
     </row>
     <row r="494">
@@ -23955,7 +23955,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>3626605619</v>
+        <v>2124665113</v>
       </c>
     </row>
     <row r="495">
@@ -24003,7 +24003,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>37575120</v>
+        <v>2695480522</v>
       </c>
     </row>
     <row r="496">
@@ -24049,7 +24049,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>70825179</v>
+        <v>8071738495</v>
       </c>
     </row>
     <row r="497">
@@ -24097,7 +24097,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>6278268761</v>
+        <v>5289829803</v>
       </c>
     </row>
     <row r="498">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1106436033</v>
+        <v>650373914</v>
       </c>
     </row>
     <row r="499">
@@ -24193,7 +24193,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>6456683213</v>
+        <v>5776346675</v>
       </c>
     </row>
     <row r="500">
@@ -24241,7 +24241,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>2984065831</v>
+        <v>5899355346</v>
       </c>
     </row>
     <row r="501">
@@ -24289,7 +24289,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>8349943594</v>
+        <v>2770985258</v>
       </c>
     </row>
     <row r="502">
@@ -24339,7 +24339,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>9374674116</v>
+        <v>9892846008</v>
       </c>
     </row>
     <row r="503">
@@ -24389,7 +24389,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>9477500571</v>
+        <v>3235269395</v>
       </c>
     </row>
     <row r="504">
@@ -24437,7 +24437,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>904204353</v>
+        <v>8476007552</v>
       </c>
     </row>
     <row r="505">
@@ -24483,7 +24483,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>6503722661</v>
+        <v>8474361765</v>
       </c>
     </row>
     <row r="506">
@@ -24531,7 +24531,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>5433504541</v>
+        <v>9141921793</v>
       </c>
     </row>
     <row r="507">
@@ -24579,7 +24579,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>966715941</v>
+        <v>6553799314</v>
       </c>
     </row>
     <row r="508">
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>7639044357</v>
+        <v>8547269818</v>
       </c>
     </row>
     <row r="509">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1777373239</v>
+        <v>6795602405</v>
       </c>
     </row>
     <row r="510">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>6971382207</v>
+        <v>824630629</v>
       </c>
     </row>
     <row r="511">
@@ -24775,7 +24775,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2954631288</v>
+        <v>2980690272</v>
       </c>
     </row>
     <row r="512">
@@ -24823,7 +24823,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1174905213</v>
+        <v>1368218935</v>
       </c>
     </row>
     <row r="513">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>8829843699</v>
+        <v>8950262771</v>
       </c>
     </row>
     <row r="514">
@@ -24919,7 +24919,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>7521985596</v>
+        <v>6037129341</v>
       </c>
     </row>
     <row r="515">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>304538328</v>
+        <v>2878268554</v>
       </c>
     </row>
     <row r="516">
@@ -25015,7 +25015,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>9175478405</v>
+        <v>8122503614</v>
       </c>
     </row>
     <row r="517">
@@ -25063,7 +25063,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1070810032</v>
+        <v>2977539197</v>
       </c>
     </row>
     <row r="518">
@@ -25109,7 +25109,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>8836139281</v>
+        <v>5447801416</v>
       </c>
     </row>
     <row r="519">
@@ -25157,7 +25157,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>8719152114</v>
+        <v>4189206334</v>
       </c>
     </row>
     <row r="520">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2831464575</v>
+        <v>4324107559</v>
       </c>
     </row>
     <row r="521">
@@ -25253,7 +25253,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>9112603340</v>
+        <v>3073196526</v>
       </c>
     </row>
     <row r="522">
@@ -25301,7 +25301,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>9463243221</v>
+        <v>179451118</v>
       </c>
     </row>
     <row r="523">
@@ -25349,7 +25349,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1269909084</v>
+        <v>816421932</v>
       </c>
     </row>
     <row r="524">
@@ -25397,7 +25397,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>8505452804</v>
+        <v>7562506978</v>
       </c>
     </row>
     <row r="525">
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1991442220</v>
+        <v>2939415980</v>
       </c>
     </row>
     <row r="526">
@@ -25493,7 +25493,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>8972771677</v>
+        <v>6681525872</v>
       </c>
     </row>
     <row r="527">
@@ -25541,7 +25541,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>8352889908</v>
+        <v>7420915386</v>
       </c>
     </row>
     <row r="528">
@@ -25589,7 +25589,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>8375950815</v>
+        <v>2503674284</v>
       </c>
     </row>
     <row r="529">
@@ -25637,7 +25637,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>6049667668</v>
+        <v>4797327613</v>
       </c>
     </row>
     <row r="530">
@@ -25685,7 +25685,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>821217501</v>
+        <v>8866103669</v>
       </c>
     </row>
     <row r="531">
@@ -25729,7 +25729,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>4025125742</v>
+        <v>5021467508</v>
       </c>
     </row>
     <row r="532">
@@ -25777,7 +25777,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>7279687452</v>
+        <v>6992222574</v>
       </c>
     </row>
     <row r="533">
@@ -25825,7 +25825,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>7850525850</v>
+        <v>9719662771</v>
       </c>
     </row>
     <row r="534">
@@ -25873,7 +25873,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>3555266766</v>
+        <v>8784940499</v>
       </c>
     </row>
     <row r="535">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2844600411</v>
+        <v>7811300332</v>
       </c>
     </row>
     <row r="536">
@@ -25969,7 +25969,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>7241033691</v>
+        <v>1372081281</v>
       </c>
     </row>
     <row r="537">
@@ -26017,7 +26017,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>9440276250</v>
+        <v>3526542293</v>
       </c>
     </row>
     <row r="538">
@@ -26065,7 +26065,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2480365307</v>
+        <v>6310844172</v>
       </c>
     </row>
     <row r="539">
@@ -26113,7 +26113,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>4716673182</v>
+        <v>4862180031</v>
       </c>
     </row>
     <row r="540">
@@ -26161,7 +26161,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>5953499414</v>
+        <v>86878412</v>
       </c>
     </row>
     <row r="541">
@@ -26209,7 +26209,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>9242347873</v>
+        <v>1925995966</v>
       </c>
     </row>
     <row r="542">
@@ -26257,7 +26257,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>8426281972</v>
+        <v>2269659595</v>
       </c>
     </row>
     <row r="543">
@@ -26303,7 +26303,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>6220461638</v>
+        <v>4920887611</v>
       </c>
     </row>
     <row r="544">
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1601602378</v>
+        <v>4702366349</v>
       </c>
     </row>
     <row r="545">
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3203967254</v>
+        <v>7480445996</v>
       </c>
     </row>
     <row r="546">
@@ -26445,7 +26445,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>9888270679</v>
+        <v>2615544674</v>
       </c>
     </row>
     <row r="547">
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>9010993917</v>
+        <v>1887886543</v>
       </c>
     </row>
     <row r="548">
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>1445956263</v>
+        <v>2556793423</v>
       </c>
     </row>
     <row r="549">
@@ -26589,7 +26589,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>8758148747</v>
+        <v>9273329374</v>
       </c>
     </row>
     <row r="550">
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1350157774</v>
+        <v>3764066363</v>
       </c>
     </row>
     <row r="551">
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>9322265534</v>
+        <v>5231225005</v>
       </c>
     </row>
     <row r="552">
@@ -26733,7 +26733,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2995688062</v>
+        <v>6207396358</v>
       </c>
     </row>
     <row r="553">
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>7971058310</v>
+        <v>3857681733</v>
       </c>
     </row>
     <row r="554">
@@ -26827,7 +26827,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>7180193931</v>
+        <v>5246913636</v>
       </c>
     </row>
     <row r="555">
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>766271824</v>
+        <v>4894771049</v>
       </c>
     </row>
     <row r="556">
@@ -26923,7 +26923,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>5634040503</v>
+        <v>7837798301</v>
       </c>
     </row>
     <row r="557">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2991506792</v>
+        <v>4439201931</v>
       </c>
     </row>
     <row r="558">
@@ -27017,7 +27017,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>9687179084</v>
+        <v>774132622</v>
       </c>
     </row>
     <row r="559">
@@ -27065,7 +27065,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>9111570125</v>
+        <v>1386662052</v>
       </c>
     </row>
     <row r="560">
@@ -27115,7 +27115,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2617568627</v>
+        <v>5372195296</v>
       </c>
     </row>
     <row r="561">
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>3341042010</v>
+        <v>9879280485</v>
       </c>
     </row>
     <row r="562">
@@ -27209,7 +27209,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>3215886769</v>
+        <v>5935658088</v>
       </c>
     </row>
     <row r="563">
@@ -27257,7 +27257,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2161528052</v>
+        <v>752616295</v>
       </c>
     </row>
     <row r="564">
@@ -27305,7 +27305,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>7113072695</v>
+        <v>3407932714</v>
       </c>
     </row>
     <row r="565">
@@ -27353,7 +27353,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>5690536589</v>
+        <v>7850343378</v>
       </c>
     </row>
     <row r="566">
@@ -27401,7 +27401,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>5678103459</v>
+        <v>1502928971</v>
       </c>
     </row>
     <row r="567">
@@ -27449,7 +27449,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>4010542192</v>
+        <v>4575087213</v>
       </c>
     </row>
     <row r="568">
@@ -27497,7 +27497,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>4011577464</v>
+        <v>2338718685</v>
       </c>
     </row>
     <row r="569">
@@ -27543,7 +27543,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>5772636503</v>
+        <v>4619399107</v>
       </c>
     </row>
     <row r="570">
@@ -27591,7 +27591,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>8856339557</v>
+        <v>2244891566</v>
       </c>
     </row>
     <row r="571">
@@ -27637,7 +27637,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>8508847784</v>
+        <v>5347201472</v>
       </c>
     </row>
     <row r="572">
@@ -27685,7 +27685,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>8184679860</v>
+        <v>7170858481</v>
       </c>
     </row>
     <row r="573">
@@ -27733,7 +27733,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>2931161442</v>
+        <v>7057973406</v>
       </c>
     </row>
     <row r="574">
@@ -27781,7 +27781,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>1373032160</v>
+        <v>5448885312</v>
       </c>
     </row>
     <row r="575">
@@ -27829,7 +27829,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>8765518001</v>
+        <v>2366976263</v>
       </c>
     </row>
     <row r="576">
@@ -27873,7 +27873,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>7268353399</v>
+        <v>3007227553</v>
       </c>
     </row>
     <row r="577">
@@ -27923,7 +27923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>773619377</v>
+        <v>9014177743</v>
       </c>
     </row>
     <row r="578">
@@ -27967,7 +27967,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>7168601149</v>
+        <v>2338151527</v>
       </c>
     </row>
     <row r="579">
@@ -28011,7 +28011,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>4668959782</v>
+        <v>9700176978</v>
       </c>
     </row>
     <row r="580">
@@ -28059,7 +28059,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>4085146439</v>
+        <v>6906620550</v>
       </c>
     </row>
     <row r="581">
@@ -28107,7 +28107,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>7119275219</v>
+        <v>5274898881</v>
       </c>
     </row>
     <row r="582">
@@ -28151,7 +28151,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>1086896735</v>
+        <v>4419410823</v>
       </c>
     </row>
     <row r="583">
@@ -28199,7 +28199,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1888287319</v>
+        <v>9180305583</v>
       </c>
     </row>
     <row r="584">
@@ -28241,7 +28241,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>8688382324</v>
+        <v>7973083770</v>
       </c>
     </row>
     <row r="585">
@@ -28287,7 +28287,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>9283765388</v>
+        <v>1309278433</v>
       </c>
     </row>
     <row r="586">
@@ -28335,7 +28335,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>883593233</v>
+        <v>6224974482</v>
       </c>
     </row>
     <row r="587">
@@ -28383,7 +28383,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1893700954</v>
+        <v>3541419188</v>
       </c>
     </row>
     <row r="588">
@@ -28431,7 +28431,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>9055956997</v>
+        <v>2043344043</v>
       </c>
     </row>
     <row r="589">
@@ -28479,7 +28479,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>5996412855</v>
+        <v>8659157856</v>
       </c>
     </row>
     <row r="590">
@@ -28527,7 +28527,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>3138691934</v>
+        <v>2614661750</v>
       </c>
     </row>
     <row r="591">
@@ -28575,7 +28575,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>5396330247</v>
+        <v>9381502709</v>
       </c>
     </row>
     <row r="592">
@@ -28623,7 +28623,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>6668168632</v>
+        <v>669799668</v>
       </c>
     </row>
     <row r="593">
@@ -28671,7 +28671,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>5795530862</v>
+        <v>304266708</v>
       </c>
     </row>
     <row r="594">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>4105101819</v>
+        <v>1234726870</v>
       </c>
     </row>
     <row r="595">
@@ -28767,7 +28767,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>711754391</v>
+        <v>5895555643</v>
       </c>
     </row>
     <row r="596">
@@ -28817,7 +28817,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>4979602656</v>
+        <v>7726113101</v>
       </c>
     </row>
     <row r="597">
@@ -28865,7 +28865,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>4979056031</v>
+        <v>2717242423</v>
       </c>
     </row>
     <row r="598">
@@ -28913,7 +28913,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>2611021782</v>
+        <v>2981873098</v>
       </c>
     </row>
     <row r="599">
@@ -28961,7 +28961,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>2742105934</v>
+        <v>2878684578</v>
       </c>
     </row>
     <row r="600">
@@ -29009,7 +29009,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>8375443790</v>
+        <v>5484020063</v>
       </c>
     </row>
     <row r="601">
@@ -29057,7 +29057,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>4573377683</v>
+        <v>7123100258</v>
       </c>
     </row>
     <row r="602">
@@ -29105,7 +29105,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>7407643673</v>
+        <v>479916651</v>
       </c>
     </row>
     <row r="603">
@@ -29153,7 +29153,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>7445168845</v>
+        <v>3213508083</v>
       </c>
     </row>
     <row r="604">
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>6439399178</v>
+        <v>7278316959</v>
       </c>
     </row>
     <row r="605">
@@ -29249,7 +29249,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>2809289698</v>
+        <v>2917517635</v>
       </c>
     </row>
     <row r="606">
@@ -29297,7 +29297,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>1918645614</v>
+        <v>5724353988</v>
       </c>
     </row>
     <row r="607">
@@ -29345,7 +29345,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>2231419994</v>
+        <v>615528136</v>
       </c>
     </row>
     <row r="608">
@@ -29393,7 +29393,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>2501921471</v>
+        <v>1478109906</v>
       </c>
     </row>
     <row r="609">
@@ -29441,7 +29441,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>7550776646</v>
+        <v>9098974324</v>
       </c>
     </row>
     <row r="610">
@@ -29489,7 +29489,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>8905876991</v>
+        <v>1613681520</v>
       </c>
     </row>
     <row r="611">
@@ -29537,7 +29537,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>4298278448</v>
+        <v>4625598175</v>
       </c>
     </row>
     <row r="612">
@@ -29583,7 +29583,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>5821290085</v>
+        <v>474191048</v>
       </c>
     </row>
     <row r="613">
@@ -29631,7 +29631,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>3117955023</v>
+        <v>1921178713</v>
       </c>
     </row>
     <row r="614">
@@ -29679,7 +29679,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>6863369299</v>
+        <v>7970520120</v>
       </c>
     </row>
     <row r="615">
@@ -29727,7 +29727,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>764575104</v>
+        <v>3765134385</v>
       </c>
     </row>
     <row r="616">
@@ -29777,7 +29777,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>177143323</v>
+        <v>7895786374</v>
       </c>
     </row>
     <row r="617">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1020875887</v>
+        <v>8840860854</v>
       </c>
     </row>
     <row r="618">
@@ -29873,7 +29873,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>7954923432</v>
+        <v>5691786893</v>
       </c>
     </row>
     <row r="619">
@@ -29921,7 +29921,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>8979029847</v>
+        <v>5227796056</v>
       </c>
     </row>
     <row r="620">
@@ -29969,7 +29969,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>1873408623</v>
+        <v>798118642</v>
       </c>
     </row>
     <row r="621">
@@ -30017,7 +30017,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>5855635372</v>
+        <v>5019946429</v>
       </c>
     </row>
     <row r="622">
@@ -30065,7 +30065,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>6601243062</v>
+        <v>9376119270</v>
       </c>
     </row>
     <row r="623">
@@ -30113,7 +30113,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>3709720924</v>
+        <v>2462049443</v>
       </c>
     </row>
     <row r="624">
@@ -30161,7 +30161,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>519228795</v>
+        <v>7932293520</v>
       </c>
     </row>
     <row r="625">
@@ -30209,7 +30209,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>3089722999</v>
+        <v>8158963580</v>
       </c>
     </row>
     <row r="626">
@@ -30257,7 +30257,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>8518258551</v>
+        <v>4356524785</v>
       </c>
     </row>
     <row r="627">
@@ -30305,7 +30305,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>48343665</v>
+        <v>7445097022</v>
       </c>
     </row>
     <row r="628">
@@ -30353,7 +30353,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>3342122697</v>
+        <v>8810822080</v>
       </c>
     </row>
     <row r="629">
@@ -30401,7 +30401,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>8094625962</v>
+        <v>361977691</v>
       </c>
     </row>
     <row r="630">
@@ -30449,7 +30449,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>2563854311</v>
+        <v>5689729562</v>
       </c>
     </row>
     <row r="631">
@@ -30497,7 +30497,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>8760479184</v>
+        <v>4555951877</v>
       </c>
     </row>
     <row r="632">
@@ -30545,7 +30545,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>4015901274</v>
+        <v>115913824</v>
       </c>
     </row>
     <row r="633">
@@ -30593,7 +30593,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>6854523114</v>
+        <v>9723861724</v>
       </c>
     </row>
     <row r="634">
@@ -30641,7 +30641,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>7966499799</v>
+        <v>1770291253</v>
       </c>
     </row>
     <row r="635">
@@ -30689,7 +30689,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>9036906923</v>
+        <v>6660905252</v>
       </c>
     </row>
     <row r="636">
@@ -30737,7 +30737,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>3801462721</v>
+        <v>7679393235</v>
       </c>
     </row>
     <row r="637">
@@ -30785,7 +30785,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>2527651653</v>
+        <v>8064297351</v>
       </c>
     </row>
     <row r="638">
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>1417771598</v>
+        <v>789962555</v>
       </c>
     </row>
     <row r="639">
@@ -30885,7 +30885,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>3544706141</v>
+        <v>312405623</v>
       </c>
     </row>
     <row r="640">
@@ -30935,7 +30935,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>3624985509</v>
+        <v>4169277015</v>
       </c>
     </row>
     <row r="641">
@@ -30983,7 +30983,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>9715176819</v>
+        <v>6911828624</v>
       </c>
     </row>
     <row r="642">
@@ -31031,7 +31031,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>3731570996</v>
+        <v>8935200140</v>
       </c>
     </row>
     <row r="643">
@@ -31079,7 +31079,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>835200637</v>
+        <v>2695857985</v>
       </c>
     </row>
     <row r="644">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>6853498861</v>
+        <v>7575729214</v>
       </c>
     </row>
     <row r="645">
@@ -31175,7 +31175,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>9572102134</v>
+        <v>8856234345</v>
       </c>
     </row>
     <row r="646">
@@ -31223,7 +31223,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>3876307458</v>
+        <v>611592540</v>
       </c>
     </row>
     <row r="647">
@@ -31271,7 +31271,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>5662019016</v>
+        <v>2273532679</v>
       </c>
     </row>
     <row r="648">
@@ -31319,7 +31319,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>2151544009</v>
+        <v>1364073861</v>
       </c>
     </row>
     <row r="649">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>2423688932</v>
+        <v>1002398213</v>
       </c>
     </row>
     <row r="650">
@@ -31415,7 +31415,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>9365528185</v>
+        <v>8503901287</v>
       </c>
     </row>
     <row r="651">
@@ -31463,7 +31463,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>9070054832</v>
+        <v>3289850838</v>
       </c>
     </row>
     <row r="652">
@@ -31511,7 +31511,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>6478763155</v>
+        <v>2005556185</v>
       </c>
     </row>
     <row r="653">
@@ -31561,7 +31561,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>6818267259</v>
+        <v>9633120300</v>
       </c>
     </row>
     <row r="654">
@@ -31609,7 +31609,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>3772380547</v>
+        <v>2432846484</v>
       </c>
     </row>
     <row r="655">
@@ -31657,7 +31657,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>9980721465</v>
+        <v>5949896783</v>
       </c>
     </row>
     <row r="656">
@@ -31703,7 +31703,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>9024480394</v>
+        <v>7162621500</v>
       </c>
     </row>
     <row r="657">
@@ -31751,7 +31751,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>480463329</v>
+        <v>5210114444</v>
       </c>
     </row>
     <row r="658">
@@ -31799,7 +31799,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>3726531695</v>
+        <v>9028986102</v>
       </c>
     </row>
     <row r="659">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>6768583538</v>
+        <v>2533733379</v>
       </c>
     </row>
     <row r="660">
@@ -31895,7 +31895,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>4932240590</v>
+        <v>2427965636</v>
       </c>
     </row>
     <row r="661">
@@ -31943,7 +31943,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>3696238567</v>
+        <v>9697994534</v>
       </c>
     </row>
     <row r="662">
@@ -31991,7 +31991,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1474324136</v>
+        <v>8056715884</v>
       </c>
     </row>
     <row r="663">
@@ -32039,7 +32039,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>5928795364</v>
+        <v>3929167734</v>
       </c>
     </row>
     <row r="664">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1731724482</v>
+        <v>8926291302</v>
       </c>
     </row>
     <row r="665">
@@ -32135,7 +32135,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>502372461</v>
+        <v>9127545362</v>
       </c>
     </row>
     <row r="666">
@@ -32183,7 +32183,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>2044231197</v>
+        <v>4558749001</v>
       </c>
     </row>
     <row r="667">
@@ -32231,7 +32231,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>3827314423</v>
+        <v>9029800915</v>
       </c>
     </row>
     <row r="668">
@@ -32279,7 +32279,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>8561677745</v>
+        <v>5842261900</v>
       </c>
     </row>
     <row r="669">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>5981421809</v>
+        <v>7143291221</v>
       </c>
     </row>
     <row r="670">
@@ -32375,7 +32375,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>2964443108</v>
+        <v>4918071180</v>
       </c>
     </row>
     <row r="671">
@@ -32423,7 +32423,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>8077465094</v>
+        <v>8155661554</v>
       </c>
     </row>
     <row r="672">
@@ -32471,7 +32471,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>570247039</v>
+        <v>8368483811</v>
       </c>
     </row>
     <row r="673">
@@ -32519,7 +32519,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>8070155751</v>
+        <v>6872666498</v>
       </c>
     </row>
     <row r="674">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>5857152907</v>
+        <v>9167074437</v>
       </c>
     </row>
     <row r="675">
@@ -32615,7 +32615,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>4397845087</v>
+        <v>2748788600</v>
       </c>
     </row>
     <row r="676">
@@ -32663,7 +32663,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>466901275</v>
+        <v>9912698331</v>
       </c>
     </row>
     <row r="677">
@@ -32711,7 +32711,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>8114391573</v>
+        <v>9938510326</v>
       </c>
     </row>
     <row r="678">
@@ -32759,7 +32759,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>4263789417</v>
+        <v>3788585144</v>
       </c>
     </row>
     <row r="679">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>5595742900</v>
+        <v>5693380663</v>
       </c>
     </row>
     <row r="680">
@@ -32855,7 +32855,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>5015954407</v>
+        <v>7623918085</v>
       </c>
     </row>
     <row r="681">
@@ -32903,7 +32903,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>1433862039</v>
+        <v>656885519</v>
       </c>
     </row>
     <row r="682">
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>6877624054</v>
+        <v>3251549317</v>
       </c>
     </row>
     <row r="683">
@@ -32997,7 +32997,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>1133053947</v>
+        <v>6220190982</v>
       </c>
     </row>
     <row r="684">
@@ -33045,7 +33045,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>4640848920</v>
+        <v>5469941269</v>
       </c>
     </row>
     <row r="685">
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>2601984994</v>
+        <v>7093438849</v>
       </c>
     </row>
     <row r="686">
@@ -33141,7 +33141,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>5005053343</v>
+        <v>2605855774</v>
       </c>
     </row>
     <row r="687">
@@ -33189,7 +33189,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>2314734370</v>
+        <v>3556145619</v>
       </c>
     </row>
     <row r="688">
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>8831460808</v>
+        <v>7206009078</v>
       </c>
     </row>
     <row r="689">
@@ -33285,7 +33285,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>3631687889</v>
+        <v>7627878589</v>
       </c>
     </row>
     <row r="690">
@@ -33333,7 +33333,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>1849310476</v>
+        <v>7091654670</v>
       </c>
     </row>
     <row r="691">
@@ -33379,7 +33379,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>8679283585</v>
+        <v>5046659848</v>
       </c>
     </row>
     <row r="692">
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>8029473035</v>
+        <v>7097968055</v>
       </c>
     </row>
     <row r="693">
@@ -33473,7 +33473,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2356248038</v>
+        <v>9848780481</v>
       </c>
     </row>
     <row r="694">
@@ -33521,7 +33521,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>6892028240</v>
+        <v>5911846162</v>
       </c>
     </row>
     <row r="695">
@@ -33569,7 +33569,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>3531136245</v>
+        <v>502997521</v>
       </c>
     </row>
     <row r="696">
@@ -33615,7 +33615,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>7501124284</v>
+        <v>1874504060</v>
       </c>
     </row>
     <row r="697">
@@ -33663,7 +33663,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1055472279</v>
+        <v>7960901456</v>
       </c>
     </row>
     <row r="698">
@@ -33711,7 +33711,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>447213386</v>
+        <v>2688094258</v>
       </c>
     </row>
     <row r="699">
@@ -33759,7 +33759,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>4430534218</v>
+        <v>2656156488</v>
       </c>
     </row>
     <row r="700">
@@ -33807,7 +33807,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>1826205773</v>
+        <v>8220454327</v>
       </c>
     </row>
     <row r="701">
@@ -33855,7 +33855,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>9072358563</v>
+        <v>1236469003</v>
       </c>
     </row>
     <row r="702">
@@ -33903,7 +33903,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>7081804298</v>
+        <v>6803250526</v>
       </c>
     </row>
     <row r="703">
@@ -33951,7 +33951,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>456554345</v>
+        <v>2061630362</v>
       </c>
     </row>
     <row r="704">
@@ -33999,7 +33999,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>6586382383</v>
+        <v>9189856064</v>
       </c>
     </row>
     <row r="705">
@@ -34047,7 +34047,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>9032072197</v>
+        <v>4072122015</v>
       </c>
     </row>
     <row r="706">
@@ -34095,7 +34095,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>5106599649</v>
+        <v>8969953207</v>
       </c>
     </row>
     <row r="707">
@@ -34143,7 +34143,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>9532029303</v>
+        <v>2772050134</v>
       </c>
     </row>
     <row r="708">
@@ -34191,7 +34191,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>2269240251</v>
+        <v>6849520543</v>
       </c>
     </row>
     <row r="709">
@@ -34239,7 +34239,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>310049588</v>
+        <v>7523930429</v>
       </c>
     </row>
     <row r="710">
@@ -34287,7 +34287,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>9047849369</v>
+        <v>2031330420</v>
       </c>
     </row>
     <row r="711">
@@ -34335,7 +34335,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>3505795650</v>
+        <v>6603823972</v>
       </c>
     </row>
     <row r="712">
@@ -34383,7 +34383,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>2893245501</v>
+        <v>2345985401</v>
       </c>
     </row>
     <row r="713">
@@ -34431,7 +34431,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>5390455121</v>
+        <v>4063047268</v>
       </c>
     </row>
     <row r="714">
@@ -34479,7 +34479,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1229646718</v>
+        <v>3147546361</v>
       </c>
     </row>
     <row r="715">
@@ -34527,7 +34527,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>3116561573</v>
+        <v>9164724596</v>
       </c>
     </row>
     <row r="716">
@@ -34575,7 +34575,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>7640101875</v>
+        <v>1045998494</v>
       </c>
     </row>
     <row r="717">
@@ -34623,7 +34623,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>6668151966</v>
+        <v>7475553500</v>
       </c>
     </row>
     <row r="718">
@@ -34671,7 +34671,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>7244903149</v>
+        <v>3024002946</v>
       </c>
     </row>
     <row r="719">
@@ -34719,7 +34719,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>6476337416</v>
+        <v>5060000865</v>
       </c>
     </row>
     <row r="720">
@@ -34767,7 +34767,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>4186495492</v>
+        <v>3430540425</v>
       </c>
     </row>
     <row r="721">
@@ -34815,7 +34815,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>5674388658</v>
+        <v>7236107171</v>
       </c>
     </row>
     <row r="722">
@@ -34863,7 +34863,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>5030049483</v>
+        <v>7630528343</v>
       </c>
     </row>
     <row r="723">
@@ -34911,7 +34911,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>2020225950</v>
+        <v>5135826127</v>
       </c>
     </row>
     <row r="724">
@@ -34959,7 +34959,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>7924069747</v>
+        <v>4207133782</v>
       </c>
     </row>
     <row r="725">
@@ -35007,7 +35007,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>7005009169</v>
+        <v>7881434480</v>
       </c>
     </row>
     <row r="726">
@@ -35055,7 +35055,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>5141399234</v>
+        <v>4359156357</v>
       </c>
     </row>
     <row r="727">
@@ -35103,7 +35103,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>8848513111</v>
+        <v>94743475</v>
       </c>
     </row>
     <row r="728">
@@ -35151,7 +35151,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>6573817588</v>
+        <v>1095852576</v>
       </c>
     </row>
     <row r="729">
@@ -35199,7 +35199,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>1026537079</v>
+        <v>1758255225</v>
       </c>
     </row>
     <row r="730">
@@ -35247,7 +35247,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>3521189949</v>
+        <v>5530827103</v>
       </c>
     </row>
     <row r="731">
@@ -35295,7 +35295,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>301202196</v>
+        <v>4240465990</v>
       </c>
     </row>
     <row r="732">
@@ -35343,7 +35343,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>8845648868</v>
+        <v>4147759176</v>
       </c>
     </row>
     <row r="733">
@@ -35391,7 +35391,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>2247576176</v>
+        <v>2597044618</v>
       </c>
     </row>
     <row r="734">
@@ -35439,7 +35439,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>2812694052</v>
+        <v>7099712548</v>
       </c>
     </row>
     <row r="735">
@@ -35487,7 +35487,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>4521170236</v>
+        <v>97855508</v>
       </c>
     </row>
     <row r="736">
@@ -35533,7 +35533,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>4521095354</v>
+        <v>882906026</v>
       </c>
     </row>
     <row r="737">
@@ -35581,7 +35581,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>8794887163</v>
+        <v>9203652989</v>
       </c>
     </row>
     <row r="738">
@@ -35627,7 +35627,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>7509679642</v>
+        <v>7279684118</v>
       </c>
     </row>
     <row r="739">
@@ -35675,7 +35675,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>4921177111</v>
+        <v>5595882130</v>
       </c>
     </row>
     <row r="740">
@@ -35723,7 +35723,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>5234598285</v>
+        <v>461480353</v>
       </c>
     </row>
     <row r="741">
@@ -35771,7 +35771,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>8682546782</v>
+        <v>6796774440</v>
       </c>
     </row>
     <row r="742">
@@ -35819,7 +35819,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>6704731316</v>
+        <v>1731093292</v>
       </c>
     </row>
     <row r="743">
@@ -35867,7 +35867,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>7118140661</v>
+        <v>6973256799</v>
       </c>
     </row>
     <row r="744">
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>5316013709</v>
+        <v>8246575890</v>
       </c>
     </row>
     <row r="745">
@@ -35963,7 +35963,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>4901246367</v>
+        <v>925909405</v>
       </c>
     </row>
     <row r="746">
@@ -36011,7 +36011,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>1198928001</v>
+        <v>4738344462</v>
       </c>
     </row>
     <row r="747">
@@ -36059,7 +36059,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>3860125606</v>
+        <v>3365016354</v>
       </c>
     </row>
     <row r="748">
@@ -36107,7 +36107,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>4672015178</v>
+        <v>1103237517</v>
       </c>
     </row>
     <row r="749">
@@ -36155,7 +36155,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>6097817488</v>
+        <v>8584024051</v>
       </c>
     </row>
     <row r="750">
@@ -36203,7 +36203,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>9653577966</v>
+        <v>9821879150</v>
       </c>
     </row>
     <row r="751">
@@ -36251,7 +36251,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>8893150841</v>
+        <v>8474200524</v>
       </c>
     </row>
     <row r="752">
@@ -36299,7 +36299,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>2904915362</v>
+        <v>3462040753</v>
       </c>
     </row>
     <row r="753">
@@ -36345,7 +36345,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>9334438536</v>
+        <v>6903568991</v>
       </c>
     </row>
     <row r="754">
@@ -36393,7 +36393,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>8570303162</v>
+        <v>7914400298</v>
       </c>
     </row>
     <row r="755">
@@ -36441,7 +36441,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>4820118054</v>
+        <v>4132536540</v>
       </c>
     </row>
     <row r="756">
@@ -36489,7 +36489,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>3764721542</v>
+        <v>2850179503</v>
       </c>
     </row>
     <row r="757">
@@ -36537,7 +36537,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>962510217</v>
+        <v>1442749708</v>
       </c>
     </row>
     <row r="758">
@@ -36585,7 +36585,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>5858333912</v>
+        <v>5456540407</v>
       </c>
     </row>
     <row r="759">
@@ -36629,7 +36629,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>6817046714</v>
+        <v>2648030266</v>
       </c>
     </row>
     <row r="760">
@@ -36675,7 +36675,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>5415348633</v>
+        <v>7194025106</v>
       </c>
     </row>
     <row r="761">
@@ -36721,7 +36721,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>8408021381</v>
+        <v>8988343549</v>
       </c>
     </row>
     <row r="762">
@@ -36767,7 +36767,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>5205102652</v>
+        <v>2389938082</v>
       </c>
     </row>
     <row r="763">
@@ -36813,7 +36813,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>7921889785</v>
+        <v>4853615485</v>
       </c>
     </row>
     <row r="764">
@@ -36859,7 +36859,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>3212337458</v>
+        <v>7335238936</v>
       </c>
     </row>
     <row r="765">
@@ -36905,7 +36905,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>1631538492</v>
+        <v>6988119780</v>
       </c>
     </row>
     <row r="766">
@@ -36951,7 +36951,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>6844656708</v>
+        <v>7234066122</v>
       </c>
     </row>
     <row r="767">
@@ -36999,7 +36999,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>1038971464</v>
+        <v>1304934222</v>
       </c>
     </row>
     <row r="768">
@@ -37045,7 +37045,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>5972042390</v>
+        <v>7157005732</v>
       </c>
     </row>
     <row r="769">
@@ -37093,7 +37093,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>6139400235</v>
+        <v>2464319704</v>
       </c>
     </row>
     <row r="770">
@@ -37139,7 +37139,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>6935827597</v>
+        <v>2033207622</v>
       </c>
     </row>
     <row r="771">
@@ -37187,7 +37187,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>8911582104</v>
+        <v>6232523212</v>
       </c>
     </row>
     <row r="772">
@@ -37235,7 +37235,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>9393582939</v>
+        <v>9103045425</v>
       </c>
     </row>
     <row r="773">
@@ -37283,7 +37283,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>230440491</v>
+        <v>979154308</v>
       </c>
     </row>
     <row r="774">
@@ -37331,7 +37331,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>316008568</v>
+        <v>1104776474</v>
       </c>
     </row>
     <row r="775">
@@ -37379,7 +37379,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>7715332235</v>
+        <v>6826240081</v>
       </c>
     </row>
     <row r="776">
@@ -37427,7 +37427,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>2882170837</v>
+        <v>9974128673</v>
       </c>
     </row>
     <row r="777">
@@ -37475,7 +37475,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>3906823832</v>
+        <v>5185168014</v>
       </c>
     </row>
     <row r="778">
@@ -37523,7 +37523,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>7824759153</v>
+        <v>6883869514</v>
       </c>
     </row>
     <row r="779">
@@ -37571,7 +37571,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>5912881055</v>
+        <v>832505612</v>
       </c>
     </row>
     <row r="780">
@@ -37619,7 +37619,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>3806019017</v>
+        <v>7416634402</v>
       </c>
     </row>
     <row r="781">
@@ -37667,7 +37667,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>8768552478</v>
+        <v>8587923073</v>
       </c>
     </row>
     <row r="782">
@@ -37715,7 +37715,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>2455301070</v>
+        <v>5501108940</v>
       </c>
     </row>
     <row r="783">
@@ -37761,7 +37761,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>9236015946</v>
+        <v>9450407471</v>
       </c>
     </row>
     <row r="784">
@@ -37809,7 +37809,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>5533751607</v>
+        <v>9712697456</v>
       </c>
     </row>
     <row r="785">
@@ -37857,7 +37857,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>6456115251</v>
+        <v>3882820414</v>
       </c>
     </row>
     <row r="786">
@@ -37905,7 +37905,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>7772462908</v>
+        <v>1020291240</v>
       </c>
     </row>
     <row r="787">
@@ -37953,7 +37953,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>2847318607</v>
+        <v>3071422254</v>
       </c>
     </row>
     <row r="788">
@@ -38001,7 +38001,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>19278693</v>
+        <v>1033822879</v>
       </c>
     </row>
     <row r="789">
@@ -38049,7 +38049,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>3261804204</v>
+        <v>7411568006</v>
       </c>
     </row>
     <row r="790">
@@ -38097,7 +38097,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>633032796</v>
+        <v>6679829301</v>
       </c>
     </row>
     <row r="791">
@@ -38145,7 +38145,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>6039497020</v>
+        <v>6230656950</v>
       </c>
     </row>
     <row r="792">
@@ -38189,7 +38189,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>3348240366</v>
+        <v>3618748232</v>
       </c>
     </row>
     <row r="793">
@@ -38237,7 +38237,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>8346544234</v>
+        <v>5013673030</v>
       </c>
     </row>
     <row r="794">
@@ -38285,7 +38285,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>1796876468</v>
+        <v>5113567332</v>
       </c>
     </row>
     <row r="795">
@@ -38333,7 +38333,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>9192221046</v>
+        <v>2834949460</v>
       </c>
     </row>
     <row r="796">
@@ -38381,7 +38381,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>8334620998</v>
+        <v>7345368748</v>
       </c>
     </row>
     <row r="797">
@@ -38429,7 +38429,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>944993782</v>
+        <v>6883806305</v>
       </c>
     </row>
     <row r="798">
@@ -38477,7 +38477,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>2301080596</v>
+        <v>9381087501</v>
       </c>
     </row>
     <row r="799">
@@ -38525,7 +38525,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>3729494135</v>
+        <v>833448958</v>
       </c>
     </row>
     <row r="800">
@@ -38573,7 +38573,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>976507078</v>
+        <v>106362617</v>
       </c>
     </row>
     <row r="801">
@@ -38621,7 +38621,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>1164988176</v>
+        <v>9080089551</v>
       </c>
     </row>
     <row r="802">
@@ -38669,7 +38669,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>6465200452</v>
+        <v>894303977</v>
       </c>
     </row>
     <row r="803">
@@ -38717,7 +38717,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>2287243449</v>
+        <v>5206421858</v>
       </c>
     </row>
     <row r="804">
@@ -38765,7 +38765,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>1526662072</v>
+        <v>7526212072</v>
       </c>
     </row>
     <row r="805">
@@ -38813,7 +38813,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>6204135608</v>
+        <v>462769645</v>
       </c>
     </row>
     <row r="806">
@@ -38859,7 +38859,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>1959559997</v>
+        <v>5405070089</v>
       </c>
     </row>
     <row r="807">
@@ -38905,7 +38905,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>858256731</v>
+        <v>4910377628</v>
       </c>
     </row>
     <row r="808">
@@ -38951,7 +38951,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>1386924889</v>
+        <v>5837832237</v>
       </c>
     </row>
     <row r="809">
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>269426364</v>
+        <v>4866589531</v>
       </c>
     </row>
     <row r="810">
@@ -39045,7 +39045,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>5407909730</v>
+        <v>87284081</v>
       </c>
     </row>
     <row r="811">
@@ -39091,7 +39091,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>5081698906</v>
+        <v>9352687826</v>
       </c>
     </row>
     <row r="812">
@@ -39137,7 +39137,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>113874775</v>
+        <v>6665683993</v>
       </c>
     </row>
     <row r="813">
@@ -39183,7 +39183,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>2720606826</v>
+        <v>3292110197</v>
       </c>
     </row>
     <row r="814">
@@ -39231,7 +39231,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>4083532250</v>
+        <v>4559158930</v>
       </c>
     </row>
     <row r="815">
@@ -39279,7 +39279,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>4747903601</v>
+        <v>778818710</v>
       </c>
     </row>
     <row r="816">
@@ -39323,7 +39323,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>5455835603</v>
+        <v>2366496383</v>
       </c>
     </row>
     <row r="817">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>7609245377</v>
+        <v>1424674670</v>
       </c>
     </row>
     <row r="818">
@@ -39413,7 +39413,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>6872301955</v>
+        <v>1036967912</v>
       </c>
     </row>
     <row r="819">
@@ -39459,7 +39459,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>2684012585</v>
+        <v>860353238</v>
       </c>
     </row>
     <row r="820">
@@ -39505,7 +39505,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>9187460436</v>
+        <v>1584043199</v>
       </c>
     </row>
     <row r="821">
@@ -39551,7 +39551,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>4331190005</v>
+        <v>118056124</v>
       </c>
     </row>
     <row r="822">
@@ -39599,7 +39599,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>5593786082</v>
+        <v>370138545</v>
       </c>
     </row>
     <row r="823">
@@ -39647,7 +39647,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>9667860466</v>
+        <v>4979237250</v>
       </c>
     </row>
     <row r="824">
@@ -39695,7 +39695,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>8928529370</v>
+        <v>7550062900</v>
       </c>
     </row>
     <row r="825">
@@ -39743,7 +39743,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>7168355933</v>
+        <v>4899181250</v>
       </c>
     </row>
     <row r="826">
@@ -39791,7 +39791,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>7922265988</v>
+        <v>9193616081</v>
       </c>
     </row>
     <row r="827">
@@ -39841,7 +39841,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>749538897</v>
+        <v>3050104955</v>
       </c>
     </row>
     <row r="828">
@@ -39891,7 +39891,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1683665938</v>
+        <v>6884395470</v>
       </c>
     </row>
     <row r="829">
@@ -39941,7 +39941,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>4121504399</v>
+        <v>78653665</v>
       </c>
     </row>
     <row r="830">
@@ -39989,7 +39989,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>5242734834</v>
+        <v>8402631226</v>
       </c>
     </row>
     <row r="831">
@@ -40037,7 +40037,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1835877467</v>
+        <v>3562745515</v>
       </c>
     </row>
     <row r="832">
@@ -40085,7 +40085,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>8790949076</v>
+        <v>9665374407</v>
       </c>
     </row>
     <row r="833">
@@ -40133,7 +40133,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>7288675339</v>
+        <v>8320214108</v>
       </c>
     </row>
     <row r="834">
@@ -40181,7 +40181,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>4744528429</v>
+        <v>4147817581</v>
       </c>
     </row>
     <row r="835">
@@ -40231,7 +40231,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>4100843731</v>
+        <v>8363015018</v>
       </c>
     </row>
     <row r="836">
@@ -40281,7 +40281,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>3991968777</v>
+        <v>1709388617</v>
       </c>
     </row>
     <row r="837">
@@ -40331,7 +40331,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>5672922635</v>
+        <v>2416761509</v>
       </c>
     </row>
     <row r="838">
@@ -40381,7 +40381,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>2329250810</v>
+        <v>2364319865</v>
       </c>
     </row>
     <row r="839">
@@ -40429,7 +40429,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>5064701977</v>
+        <v>7607671817</v>
       </c>
     </row>
     <row r="840">
@@ -40477,7 +40477,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>3952940354</v>
+        <v>4371730882</v>
       </c>
     </row>
     <row r="841">
@@ -40525,7 +40525,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>8715971632</v>
+        <v>4466334203</v>
       </c>
     </row>
     <row r="842">
@@ -40575,7 +40575,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>9273493036</v>
+        <v>385315724</v>
       </c>
     </row>
     <row r="843">
@@ -40625,7 +40625,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>3735783465</v>
+        <v>7170716316</v>
       </c>
     </row>
     <row r="844">
@@ -40675,7 +40675,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>7791022932</v>
+        <v>6956396425</v>
       </c>
     </row>
     <row r="845">
@@ -40721,7 +40721,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>8322602248</v>
+        <v>5101826912</v>
       </c>
     </row>
     <row r="846">
@@ -40767,7 +40767,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>9998957154</v>
+        <v>9116396603</v>
       </c>
     </row>
     <row r="847">
@@ -40813,7 +40813,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>3664025633</v>
+        <v>3418922510</v>
       </c>
     </row>
     <row r="848">
@@ -40861,7 +40861,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>6535045062</v>
+        <v>5124604117</v>
       </c>
     </row>
     <row r="849">
@@ -40909,7 +40909,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>2927184862</v>
+        <v>2177562961</v>
       </c>
     </row>
     <row r="850">
@@ -40957,7 +40957,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>8723741008</v>
+        <v>9442703679</v>
       </c>
     </row>
     <row r="851">
@@ -41005,7 +41005,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>7140501739</v>
+        <v>4460737913</v>
       </c>
     </row>
     <row r="852">
@@ -41053,7 +41053,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>5926804099</v>
+        <v>3121962683</v>
       </c>
     </row>
     <row r="853">
@@ -41101,7 +41101,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>5999336007</v>
+        <v>9148342043</v>
       </c>
     </row>
     <row r="854">
@@ -41149,7 +41149,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>6076102867</v>
+        <v>1592581526</v>
       </c>
     </row>
     <row r="855">
@@ -41197,7 +41197,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>4715078163</v>
+        <v>6225817862</v>
       </c>
     </row>
     <row r="856">
@@ -41245,7 +41245,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1121109110</v>
+        <v>1464068653</v>
       </c>
     </row>
     <row r="857">
@@ -41293,7 +41293,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>6736275698</v>
+        <v>1271094841</v>
       </c>
     </row>
     <row r="858">
@@ -41341,7 +41341,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>8862141765</v>
+        <v>7566883322</v>
       </c>
     </row>
     <row r="859">
@@ -41391,7 +41391,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1800362507</v>
+        <v>4915500626</v>
       </c>
     </row>
     <row r="860">
@@ -41439,7 +41439,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>3133658658</v>
+        <v>2730021242</v>
       </c>
     </row>
     <row r="861">
@@ -41489,7 +41489,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>2370457835</v>
+        <v>8242944513</v>
       </c>
     </row>
     <row r="862">
@@ -41537,7 +41537,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1795257202</v>
+        <v>2630508339</v>
       </c>
     </row>
     <row r="863">
@@ -41583,7 +41583,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>9623153066</v>
+        <v>9784543756</v>
       </c>
     </row>
     <row r="864">
@@ -41631,7 +41631,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>3830713053</v>
+        <v>7368836930</v>
       </c>
     </row>
     <row r="865">
@@ -41681,7 +41681,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1016787467</v>
+        <v>6155792948</v>
       </c>
     </row>
     <row r="866">
@@ -41729,7 +41729,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>7176272563</v>
+        <v>1758206890</v>
       </c>
     </row>
     <row r="867">
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>9288106991</v>
+        <v>488510299</v>
       </c>
     </row>
     <row r="868">
@@ -41829,7 +41829,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>2472295080</v>
+        <v>9339983399</v>
       </c>
     </row>
     <row r="869">
@@ -41879,7 +41879,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>4285989671</v>
+        <v>7536721656</v>
       </c>
     </row>
     <row r="870">
@@ -41929,7 +41929,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>2486104986</v>
+        <v>4100946727</v>
       </c>
     </row>
     <row r="871">
@@ -41979,7 +41979,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>9587618385</v>
+        <v>1477420686</v>
       </c>
     </row>
     <row r="872">
@@ -42029,7 +42029,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>7461485803</v>
+        <v>1012489936</v>
       </c>
     </row>
     <row r="873">
@@ -42077,7 +42077,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>8981175047</v>
+        <v>7592194731</v>
       </c>
     </row>
     <row r="874">
@@ -42125,7 +42125,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>2716746199</v>
+        <v>6346357799</v>
       </c>
     </row>
     <row r="875">
@@ -42173,7 +42173,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>5106991435</v>
+        <v>1409690565</v>
       </c>
     </row>
     <row r="876">
@@ -42221,7 +42221,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>5143339338</v>
+        <v>5818248423</v>
       </c>
     </row>
     <row r="877">
@@ -42269,7 +42269,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>6548609854</v>
+        <v>2574747623</v>
       </c>
     </row>
     <row r="878">
@@ -42317,7 +42317,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>8398246754</v>
+        <v>3506884953</v>
       </c>
     </row>
     <row r="879">
@@ -42365,7 +42365,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>662906690</v>
+        <v>7788432151</v>
       </c>
     </row>
     <row r="880">
@@ -42413,7 +42413,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>3361630548</v>
+        <v>5460484990</v>
       </c>
     </row>
     <row r="881">
@@ -42463,7 +42463,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>6854082067</v>
+        <v>7629996483</v>
       </c>
     </row>
     <row r="882">
@@ -42513,7 +42513,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>7410804716</v>
+        <v>1706048155</v>
       </c>
     </row>
     <row r="883">
@@ -42561,7 +42561,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>9280215432</v>
+        <v>5964762793</v>
       </c>
     </row>
     <row r="884">
@@ -42609,7 +42609,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>5507587392</v>
+        <v>718774714</v>
       </c>
     </row>
     <row r="885">
@@ -42659,7 +42659,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>8545771966</v>
+        <v>5399848450</v>
       </c>
     </row>
     <row r="886">
@@ -42697,7 +42697,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>8152372522</v>
+        <v>3041921155</v>
       </c>
     </row>
   </sheetData>
